--- a/deuChatbot/research_result/version_1(3000_300).xlsx
+++ b/deuChatbot/research_result/version_1(3000_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13698,6 +13698,7240 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있으며, 실기시험의 구성, 준비물, 주제, 화지 크기 및 시험 시간을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 및 정확성 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8612077915900628</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. 모집단위:
+   - 시각디자인
+   - 산업디자인
+   - 공예디자인
+2. 종목별 배점(비율):
+   - 기초디자인, 사고의 전환: 700점 (70%)
+3. 준비물:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+4. 실기주제:
+   - 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+   - 예시: 잠자리와 저울, 콜라병과 계절 등
+5. 화지크기:
+   - 켄트지3절 (A4 크기)
+6. 시간:
+   - 5시간
+이 시험은 창의적 사고력과 표현 능력을 평가하기 위해 기초디자인과 사고의 전환 두 가지 주제를 통해 다양한 주제에 대한 디자인 작업을 수행하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기 종목을 "시각디자인, 산업디자인, 공예디자인"으로 언급하고 있으나, 원본 텍스트에서는 "기초디자인"과 "사고의 전환"이 실기 종목으로 명시되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 실기 종목에 대한 설명이 다릅니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 포함하고 있어 관련성이 높지만, 일부 정보가 잘못되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 원본 텍스트와 다르게 해석될 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 구조가 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 정보를 제공하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 일부 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8327974875316818</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울" 또는 "콜라병과 계절" 등이 있습니다.
+- **화지크기**: 켄트지 3절입니다.
+- **시간**: 5시간 동안 실기를 진행합니다.
+디자인조형학과의 실기 준비를 위해 이러한 준비물과 주제, 화지 크기, 시간을 참고하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 경기지도학과의 인정대회 목록을 제공하지 않고, 대신 정보가 없다고 언급하고 있습니다. 이는 원본 텍스트의 내용을 왜곡하고 있으며, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 인정대회 목록을 명확히 제시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 경기지도학과의 인정대회에 대한 정보를 요청하는 질문에 대한 답변으로 보이지만, 실제로는 관련 정보를 제공하지 않고 다른 방법을 제안하고 있습니다. 따라서 관련성은 있지만, 핵심 정보를 제공하지 않아 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 약간 저해됩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다. 정보가 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 제공된 정보가 없다고 주장하는 것은 사실과 다릅니다. 원본 텍스트에는 명확한 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절한 제안이 포함되어 있지만, 원본 텍스트의 요구에 대한 직접적인 답변이 부족하여 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 정보의 부족으로 인해 질문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.5343774748701169</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 경기지도학과의 실기/실적(경기실적우수자전형) 모집단위에 대한 인정대회 정보는 제공된 표로 확인할 수 없습니다. 표에서는 경기지도학과와 관련된 내용이 포함되어 있지 않습니다.
+만약 경기지도학과의 모집종목별 인정대회에 대한 정보가 필요하다면, 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 입학처 웹사이트를 확인해보세요.
+2. 동의대학교 입학 안내 책자나 전형요강을 다시 검토해보세요.
+3. 동의대학교 입학상담실에 직접 문의해보세요.
+이러한 방법들을 통해 경기지도학과의 모집종목별 인정대회에 대한 정확한 정보를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 내용을 잘 반영하고 있으며, 주제A와 주제B의 항목들을 정확하게 나열하고 있습니다. 그러나 "제공되는 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상 변경도 금지되어 있습니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 주제와 시험 방식에 대한 설명이 일치하지만, 추가된 규칙이 원본 텍스트에 없기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 규칙으로 인해 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 그러나 약간의 혼란을 줄 수 있는 추가 정보가 포함되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7790090092130362</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 주제A와 주제B 각각에서 1개씩을 선택하여 연결된 주제를 만드는 것이 요구됩니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.
+이외에도 제공되는 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상 변경도 금지되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 점수가 반영된다고 잘못 언급하고 있으며, 이는 원문과 정반대의 내용입니다. 원문에서는 출결 점수가 반영되지 않는다고 명확히 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서 출결 점수가 반영되지 않는다고 했지만, 생성된 응답에서는 반영된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 출결 점수에 대한 잘못된 설명이 주를 이루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 아랍어로 시작하는 부분이 한국어 문맥과 어울리지 않아 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 불일치로 인해 일관성이 떨어집니다. 출결 점수에 대한 잘못된 정보가 전체적인 흐름을 방해합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 사실적으로 완전히 일치하지 않으며, 출결 점수가 반영된다고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6120711528050778</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>نعم, 동의대학교 학생부교과 전형에서는 출결 상황이 반영됩니다. 
+특히 나군 학생부교과(농어촌학생전형)에서는 출결일수에 따라 다음과 같이 점수가 반영됩니다:
+- 결석일수 0~2일: 120점
+- 결석일수 3~6일: 90점 
+- 결석일수 7~12일: 60점
+- 결석일수 13~20일: 30점
+- 결석일수 21일 이상: 0점
+이 점수는 학생부교과 전형의 평가 항목 중 하나로 반영되며, 출결 기록이 좋지 않은 경우 점수가 낮게 반영되어 합격에 불리할 수 있습니다. 따라서 출석을 최대한 유지하는 것이 중요합니다.
+추가적으로, 동의대학교는 학생부교과 전형에서 다음과 같은 항목들을 종합적으로 평가합니다:
+- 국어
+- 수학 
+- 외국어(영어)
+- 사회(역사/도덕 포함)
+- 과학
+- 한국사
+각 교과별 성적과 출결 등이 합격 여부에 영향을 미칠 수 있으므로, 전반적인 학업 성적 관리가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 모집 인원인 17명을 정확하게 언급하고 있으며, 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 추가적인 정보가 포함되어 있지만 원문의 내용을 잘 반영하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 핵심 정보를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하지만, 약간의 구두점이나 문장 구조에서 개선의 여지가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 추가된 정보가 다소 분산된 느낌을 줄 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 약간 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.7134798023375913</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 다군 일반학생 전형을 통해 모집하는 인원에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6197656328142658</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 / 
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 22명을 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7218659415516334</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생전형으로 모집하며, 해당 모집단위의 모집인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 정확하게 전달하지 않고, "영어聽力等級"라는 잘못된 용어를 사용하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, "영어聽力"라는 표현이 원본의 "영어영역"과 상충합니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 용어 사용으로 인해 일부 관련성이 떨어집니다. 그러나 점수 표는 여전히 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어 약간의 불일치가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 표 형식으로 잘 구성되어 있으며, 정보의 흐름이 논리적입니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하지 않으며, 잘못된 정보를 포함하고 있습니다. "영어聽力"라는 표현은 원본의 내용과 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 있으며, "영어聽力"라는 표현이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 용어 사용으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.5967227582739464</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语提供的英語聽力等級對應的分數表：
+| 等级 | 分数 |
+|------|------|
+| 1    | 139  |
+| 2    | 131  |
+| 3    | 123  |
+| 4    | 115  |
+| 5    | 107  |
+| 6    | 99   |
+| 7    | 91   |
+| 8    | 83   |
+| 9    | 75   |
+这个表格显示了不同等級对应的分数。</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 지원 가능한 고교 유형과 지원 불가능한 고교 유형에 대한 정보도 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "нет,"라는 단어가 한국어 문장에 포함되어 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 전반적으로 의미가 적절하지만, "нет,"라는 단어가 포함되어 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.7845556761853183</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> нет,예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다. 
+[표 내용]에서 다음과 같이 명시되어 있습니다:
+- **나군 학생부교과(농어촌학생전형)**:
+  - 지원 가능 고교유형: 일반고, 자율고, 특수목적고 (과학고, 국제고, 외국어고 / 예술고, 체육고 / 마이스터고), 특성화고 (특성(직업) / 특성(대안)), 영재학교, 기타 (학력인정고 / 방송통신고 / 각종학교)
+  - 지원 불가능 고교유형: **예술고**
+따라서 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 4등급의 기록 범위와 배점이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확한 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 관련 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8610464364083226</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급의 레저스포츠학과 여자 제자리 멀리뛰기는 218~221cm 범위에 해당하며, 이 기록은 275점의 배점을 받습니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 모든 정보가 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 서로 충돌하지 않습니다. 모든 내용이 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 출결 반영 비율에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 모든 사실이 정확하게 반영되어 있으며, 원본 텍스트의 내용을 충실히 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.6590897635615233</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 얻었습니다. 경기지도학과의 경우, 전형요소 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+따라서 출결의 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 학과에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용을 보완하는 형태로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 물리치료학과의 모집 인원에 직접적으로 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.7063277654914514</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+가군 수능(일반학생전형) 모집단위 및 모집인원 표에서 다음과 같이 확인할 수 있습니다:
+- 단과대학: 의료보건생활대학
+- 계열: 자연과학
+- 모집단위: 물리치료학과
+- 모집인원: 4 명</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다. 모든 정보가 일관되게 연결되어 있으므로 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 실기고사 일정에 대한 질문에 적절하게 답변하고 있습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5068505807225291</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 1월 17일(수)에 실시됩니다.
+관련 정보는 다음과 같습니다:
+- **날짜**: 2024. 01. 17.(수)
+- **모집단위**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- **종목**: 시각디자인, 산업디자인, 공예디자인
+참고로 이 날짜는 디자인조형학과의 실기고사 일정이며, 다른 학과들의 실기고사는 이와 다를 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 원문과 상충되는 내용을 포함하고 있습니다. 응답에서는 응용화학과의 수능 최저기준이 존재하는 것처럼 설명하고 있으며, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문이 수능 최저 기준이 없다고 명시하고 있는데, 생성된 응답은 여러 기준을 제시하며 이를 반박하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 원문이 명확히 수능 최저 기준이 없다고 언급하고 있기 때문에, 제공된 정보는 주제와 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있으나, 원문과의 불일치로 인해 논리적 흐름이 약해집니다. 정보는 일관되게 제시되지만, 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 다릅니다. 수능 최저 기준이 없다는 사실을 무시하고 여러 기준을 제시하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 수능 최저 기준이 없다는 점을 무시하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 정보가 많지만, 핵심 메시지가 명확하지 않습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4565971795755454</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 제공되지 않았습니다. 하지만, 관련된 정보들을 종합해보면:
+1. 응용화학과는 다군 수능(일반학생전형) 모집단위에 포함되어 있습니다.
+2. 다군 수능(일반학생전형)의 전형요소 반영비율은 100% 수능입니다 (수능 위주 전형).
+3. 응용화학과는 "응용화학과 / 22"로 모집인원이 제시되어 있습니다.
+4. 다군 수능(일반학생전형)의 수능 반영방법은 다음과 같습니다:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+   - 수학(미적분 또는 기하) 응시자에 한해 수학 표준점수 x 0.1 가산점
+따라서, 응용화학과의 수능 최저기준은 다음과 같은 요소들로 구성될 것으로 추정됩니다:
+- 국어 수능 점수
+- 수학(미적분 또는 기하) 수능 점수 (가산점 포함)
+- 영어 수능 등급에 따른 점수
+- 탐구 과목의 표준점수
+하지만, 정확한 최저기준 점수는 동의대학교 입학처에서 공식 발표한 정보를 참고해야 합니다. 해당 대학 홈페이지나 입학 안내 자료를 확인하시거나, 직접 입학처에 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에 명시된 학과들과는 전혀 다른 학과들이 나열되어 있으며, 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트에 나열된 학과들과 생성된 응답의 학과들이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 답하고 있지만, 제공된 정보가 사실과 일치하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 내용이 사실과 다르기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제에 대한 의미는 전달하고 있지만, 잘못된 정보를 바탕으로 하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.653823244610316</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에 신설된 학과들은 다음과 같습니다:
+- 인문사회과학대학 / 라이프융합공학과 (스마트호스피탈리티학과)
+- 공과대학 / 미래형자동차학과
+- ICT융합공과대학 / 소프트웨어융합학과
+특히 2024학년도에 신설된 학과는 다음과 같습니다:
+- 인문사회과학대학 / 라이프융합공학과 (스마트호스피탈리티학과)
+- 공과대학 / 미래형자동차학과
+- ICT융합공과대학 / 소프트웨어융합학과
+따라서 2024학년도에 신설된 학과는 인문사회과학대학의 라이프융합공학과와, 공과대학의 미래형자동차학과, ICT융합공과대학의 소프트웨어융합학과 등입니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.7918134408475483</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 표 `나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 전형요소 반영비율`에서 추출되었습니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과에 대한 정보가 포함되어 있지만, 원본 텍스트에서 언급된 모집단위인 의료·보건·생활대학, 공과대학, ICT융합공과대학에 대한 정보가 누락되어 있습니다. 또한, 한의예과에 대한 가산점 정보는 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있으며, 한의예과에 대한 내용이 추가되어 원본의 모집단위와 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 동의대학교의 모집단위에 대한 정보가 누락되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 섹션으로 나뉘어 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 잘못된 내용을 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.6722221388835153</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+관련 정보는 다음과 같습니다:
+- "가산점" 섹션에서:
+  "한의예과 수학(미적분/기하) 응시자 / 국어(화법과작문 or 언어와매체) 25% +수학 (미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25% / 가산점 없음 /
+   한의예과 수학(확률과통계) 응시자 / 국어(화법과작문 or 언어와매체) 25% + 수학(확률과통계) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25% / 가산점 없음 /
+- "수능 반영영역 및 가산점" 섹션에서:
+  "의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위 / 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% +영어 25% + 탐구(사회탐구 또는 과학탐구 또는직업탐구 - 2개 과목 합) 25% / 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점 /
+따라서, 한의예과에서 수학(미적분/기하)을 응시한 학생에게만 수능 가산점이 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충하는 내용을 담고 있습니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 과목별로 비율을 나누어 제시하고 있습니다. 이는 명백한 사실 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원문은 수능 성적을 100% 반영한다고 했으나, 생성된 응답은 각 과목의 비율을 제시하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있지만, 원문에서 강조한 100% 반영이라는 핵심 내용을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 내용의 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 각 과목의 비율을 나열하고 있지만, 원문과의 연결성이 부족하여 전체적으로 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 정보와 사실적으로 맞지 않으며, 잘못된 정보를 포함하고 있습니다. 수능 성적이 100% 반영된다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 수능 성적 반영에 대한 정보를 제공하지만, 원문과의 의미적 일치가 부족하여 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 신뢰성 문제로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7183693228300296</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 국어(화법과작문 또는 언어와매체): 25%
+- 수학(확률과통계 또는 미적분 또는 기하): 25%
+- 영어: 25%
+- 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합): 25%
+이러한 반영 비율은 전 모집단위에 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기고사 날짜와 관련된 추가 정보를 제공하고 있습니다. 모든 정보가 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기고사 날짜에 대한 정보가 일치합니다. 추가적인 세부사항도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기고사 날짜와 관련된 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.7860133129054842</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정되어 있습니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**에 진행됩니다.
+- 이 날짜는 대기실 및 입실시간 안내를 포함하고 있으며, 자세한 정보는 2024. 01. 12.(금)부터 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 가군 실기고사 날짜는 **2024년 1월 16일(화)**입니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과와 경기지도학과를 제외한 모집단위를 잘못 언급하고 있습니다. 레저스포츠학과와 태권도학과는 원문에 포함되지 않으며, 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있어 일관성이 떨어집니다. 원문에서 제외된 모집단위와 생성된 응답에서 언급된 모집단위 간에 불일치가 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 잘못된 정보를 포함하고 있어 일부 관련성이 떨어집니다. 그러나 전반적으로 질문에 대한 답변을 시도하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 비교적 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다. 정보의 정확성이 떨어지면서 일관성이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제외된 모집단위를 잘못 기술하고 있어 정확성이 낮습니다. 원문에 명시된 모집단위와의 불일치가 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 원문의 맥락과 다소 어긋납니다. 따라서 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 문장은 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.7059626041906304</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 제외된 모집단위는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과입니다.
+이 점을 확인하기 위해 제공된 "전형료" 표에서 다음과 같이 확인할 수 있습니다:
+```plaintext
+&lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 수능(일반학생전형) / 전 모집단위(디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 제외) / 35,000원 /
+```
+이 항목에서 "디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 제외"라는 부분이 해당 모집단위가 나군 수능(일반학생전형)에서 제외된 것을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저기준이 적용된다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 수능 최저기준이 적용되지 않는다고 명확히 언급하고 있으므로, 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 포함하고 있습니다. 원본에서는 수능 최저기준이 적용되지 않는다고 했지만, 생성된 응답에서는 적용된다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저기준에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 반대되는 정보를 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 내부적으로는 어느 정도 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.7416864685896734</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다. 그러나 정확한 최저기준 점수는 공개되지 않았으며, 일반적으로 수능 성적과 모집단위별 특성에 따라 결정됩니다.
+참조로, 수능 전형성적 산출방법 표에서 다군의 경우 다음과 같은 방식으로 성적이 반영되며, 최저합격선이 설정될 것으로 예상됩니다:
+- 인문사회과학대학, 상경대학 모집단위: 국어 + 수학 + 영어 + 탐구
+- 공과대학, ICT융합공과대학 모집단위: 위와 동일한 점수에 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수 x 0.1 가산점이 적용
+따라서 최저기준은 이 성적 산출방법을 바탕으로 결정될 것으로 보입니다. 정확한 최저기준 점수는 입학처 공지나 모집요강에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 학과 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있어 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬워, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8960687504721599</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 -&gt; 아동학과
+2. 경제금융보험학과 -&gt; 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) -&gt; 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 -&gt; 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) -&gt; 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) -&gt; 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) -&gt; 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) -&gt; 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) -&gt; 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) -&gt; 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) -&gt; 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) -&gt; 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) -&gt; 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) -&gt; 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이러한 분리로 인해 학부가 학과로 재구성되었습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 포함되어 있지만 원본의 핵심 내용을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 원서접수 마감일에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7874788298569274</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수 마감일은 **2024. 01. 06.(토) 18시**까지입니다.
+이 기간 내에 원서 접수 사이트 접속을 완료해야 하며, 이 시간 이후에는 접속이 차단되어 원서를 제출할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 전형의 명칭과 세부 사항에서 여러 가지 오류가 있습니다. 예를 들어, "학생부종합전형 (성인학습자(정원내)전형)"과 "학생부종합전형 (성인학습자(정원외)전형)"이라는 명칭은 원본 텍스트에 명시되어 있지 않으며, "재직자전형"에 대한 설명도 원본에 없는 내용입니다. 이러한 이유로 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 제시된 전형의 세부 사항과 명칭이 다르며, 일부 내용이 추가되거나 변경되었습니다. 이러한 불일치는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보가 포함되어 있어 전체적인 관련성은 다소 떨어집니다. 그러나 전형 요소 변화에 대한 언급은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있으나, 원본 텍스트와의 불일치로 인해 논리적 일관성이 떨어집니다. 특히 전형의 명칭과 세부 사항이 다르기 때문에 응답의 일관성이 저하됩니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 여러 가지 차이가 있으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 구조는 명확하여 이해 가능성은 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.8131437371242597</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **학생부종합전형 (성인학습자(정원내)전형)**:
+   - 지원 자격 조건이 변경되었습니다.
+   - "고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자"로 수정되었습니다.
+2. **학생부종합전형 (성인학습자(정원외)전형)**:
+   - 지원 자격 조건이 변경되었습니다.
+   - "고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자"로 수정되었습니다.
+3. **학생부종합전형 (재직자전형)**:
+   - 모집 단위 중 일부가 신설되었습니다.
+   - "특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 해당" 조건이 추가되었습니다.
+4. **학생부종합전형 (조기취업형계약학과전형)**:
+   - 동점자 처리 기준이 변경되었습니다.
+   - "전 모집단위 / 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사교과 전 과목 석차등급 평균"으로 수정되었습니다.
+이러한 변화가 2024학년도 동의대학교 입학전형에서 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 잘못 해석하고 있습니다. 응답에서는 레저스포츠학과와 태권도학과의 실기 비중을 언급하고 있지만, 전체 전형에서 실기 비중이 70%라는 핵심 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 실기 비중이 70%라고 명시하고 있지만, 생성된 응답은 실기가 반영되지 않는다고 주장하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 사실을 왜곡하고 있어 관련성이 떨어집니다. 실기 비중에 대한 정보는 포함되어 있으나, 잘못된 정보로 인해 주제와의 관련성이 약해집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 실기 비중에 대한 설명이 명확하지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않고 있습니다. 실기 비중이 70%라는 사실을 잘못 해석하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성 모두에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않습니다. 실기 비중에 대한 잘못된 해석으로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 왜곡으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.6273759389309733</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 레저스포츠학과와 태권도학과를 제외한 모든 모집단위는 수능 100%로 실기가 반영되지 않습니다.
+가군 실기/실적(일반학생전형)의 경우, 레저스포츠학과와 태권도학과만 실기가 반영되며, 그 비중은 다음과 같습니다:
+- 레저스포츠학과: 30% (실기)
+- 태권도학과: 70% (실기)
+따라서 일반적으로 가군 실기/실적 전형에서 실기는 반영되지 않으며, 수능이 100%로만 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록과 신설된 학부에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 관련 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.849759668715508</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세부 전공으로 다음과 같이 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+즉, 라이프융합학부는 3개의 세부 전공을 가지고 있으며, 이들 전공은 모두 신설된 내용입니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에 명시된 학과와 일치하지 않습니다. 원본 텍스트에는 '체육학과'와 '레저스포츠학과'가 포함되어 있지만, 생성된 응답에서는 '태권도학과'가 추가되어 있으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 포함하고 있습니다. 원본 텍스트에 있는 '체육학과'가 누락되었고, '태권도학과'가 추가되어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 완전한 관련성을 가지지 않습니다. 원본 텍스트의 핵심 내용은 실기고사에 참여해야 하는 학과에 대한 정보인데, 잘못된 학과가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 잘못된 학과가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다르게 해석될 수 있는 요소가 포함되어 있습니다. 잘못된 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7357404387704349</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다. 다른 학과들은 수능 성적을 기준으로 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과를 나열하고 있지만, 추가 전형료에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 추가 전형료와 관련된 정보는 원본과 일치하지 않으며, 이로 인해 일관성이 부족하다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기/실적 위주 전형 지원 가능한 학과에 대한 정보를 잘 전달하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 명확하게 연결되어 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 추가 전형료에 대한 언급이 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 보이지만, 사실성과 정확성에서 약간의 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가 전형료에 대한 언급이 다소 부적절할 수 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 정보가 추가되어 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.7461892357551068</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기고사)
+2. 태권도학과 (실기고사)
+3. 디자인조형학과 (실기고사, 단 체육학과와 레저스포츠학과는 실기/실적 위주 전형의 경우 68,000원의 추가 전형료가 필요합니다.)
+4. 경기지도학과 (축구, 배드민턴)
+이 중에서 디자인조형학과와 체육학과는 일반학생전형에서는 실기/실적 위주로 지원할 수 있지만, 실기/실적 위주 전형을 선택하면 추가 전형료가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 라이프융합학부의 전공을 정확하게 나열하고 있으며, 추가적인 정보(학생부종합전형, 다양한 전형 등)도 포함되어 있어 사실적으로 정확하다. 그러나 '미래융합대학'이라는 명칭은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 전공을 나열하고 있지만, '미래융합대학'이라는 새로운 명칭이 추가되어 원문과의 일관성이 떨어진다. 또한, 전형에 대한 정보는 원문에 포함되어 있지 않으므로 일관성이 부족하다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 전공에 대한 정보를 직접적으로 다루고 있으며, 관련된 추가 정보도 제공하고 있어 매우 관련성이 높다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없다. 다만, 약간의 어색한 표현이 있을 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전공 목록과 추가 정보를 잘 연결하고 있으며, 전반적으로 논리적인 흐름이 있다. 그러나 '미래융합대학'이라는 명칭이 추가되어 약간의 혼란을 줄 수 있다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공에 대한 정보는 정확하지만, '미래융합대학'이라는 명칭이 원문에 없기 때문에 정확성에서 약간의 문제가 있다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, '미래융합대학'이라는 추가 정보가 원문과의 의미적 일치를 약간 해친다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 표현이 다소 어색할 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.7884487976304924</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 학부는 학생부종합전형으로 모집되며, 각 전공은 평생학습자전형, 성인학습자(정원내/외)전형, 재직자전형 등 다양한 전형을 통해 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생의 지원 가능성에 대한 정보가 잘못 전달되고 있습니다. 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있지만, 생성된 응답에서는 지원이 제한된다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있으나, 생성된 응답에서는 지원이 제한된다고 하여 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 원문에서 언급된 일반학생전형에 대한 정보는 포함되어 있으나, 잘못된 해석으로 인해 주제가 흐트러졌습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약해졌습니다. 정보가 잘 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 다르게 잘못된 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 의도를 잘못 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.6358017777902536</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 출신자는 지원이 제한됩니다. 
+특히 주요 내용은 다음과 같습니다:
+1. 인문사회과학대학, 상경대학의 모집단위에서는 특수목적고등학교 출신자 지원이 가능하지 않습니다.
+2. 의료보건생활대학, 공과대학, ICT융합공과대학의 모집단위에서도 일부 제한이 있습니다. 
+3. 예를 들어 인문사회과학대학의 중어중국학과 - 교직, 일본학과 - 교직 등은 특수목적고등학교 출신자 지원을 허용하지 않습니다.
+따라서 일반적으로 특수목적고등학교 학생은 동의대학교 정시모집에서 제한적인 지원이 가능합니다. 구체적인 모집단위와 지원 가능한 전형은 공지된 모집요강을 확인하시거나 대학 입학처에 문의하시는 것이 좋습니다.
+추가로, 정확한 지원 가능 여부는 2024년 최종 모집요강에서 결정되므로, 해당 정보를 확인하기 위해서는 공식 홈페이지나 입학처와 직접 연락하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 경영정보학과가 가장 많이 모집한다고 잘못 기술하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트의 내용과 전혀 일치하지 않으며, 서로 다른 학과와 모집 인원을 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 나군 전형에 대한 질문에 답하고 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비일관성이 있어 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 잘못된 학과명과 모집 인원을 제시하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 제공하여 의미적으로 적절하지 않습니다. 원본 텍스트의 맥락을 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.6594482314639685</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 경영정보학과입니다. 이 학과는 33명을 모집하며, 다음으로 많은 인원을 모집하는 학과들은 다음과 같습니다:
+1. 경영정보학과 - 33명
+2. e비즈니스학과 - 31명
+3. 국제관광경영학과 - 11명
+따라서 가장 많이 모집되는 학과는 경영정보학과로, 33명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 지원 자격에 대한 정보를 명확하게 전달하고 있습니다. 모든 사실이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 지원 자격에 대한 설명이 충돌 없이 잘 연결되어 있습니다. 모든 정보가 일관되게 제공됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다. 모든 내용이 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다. 모든 정보가 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.5899489889223851</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>지원 가능 여부는 고교 유형에 따라 다릅니다. 특수목적고등학교 중 과학고, 국제고, 외국어고, 예술고, 체육고 출신자는 농어촌학생전형 지원이 제한됩니다.
+특수목적고등학교의 경우 다음과 같이 지원 자격이 제한되므로, 해당 학교를 졸업(예정)한 경우에는 지원이 불가능합니다:
+- 과학고, 국제고, 외국어고
+- 예술고, 체육고
+따라서, 특수목적고등학교 중 위에 열거된 학교 출신인 경우 농어촌학생전형으로 지원할 수 없습니다.
+만약 다른 특수목적고등학교를 졸업(예정)한 경우에는 지원이 가능합니다. 하지만 정확한 자격 여부는 동의대학교 입학처에서 확인하는 것이 가장 확실합니다.官方网站回复：
+根据提供的信息，如果你是科学高中、国际高中或外语高中的毕业生，则不符合农渔村学生招生的资格。因此，如果是这些学校的毕业生，你不能通过“农渔村学生”类别申请。
+但是，如果你毕业于其他类型的特殊高中（如艺术高中或体育高中），则可能符合资格。不过，建议直接咨询东义大学的招生办公室以确认具体的资格条件，因为政策可能会有所变化。
+你可以访问东义大学官网 https://ipsi.deu.ac.kr/main.do 获取最新信息和详细指导。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 원문은 해당 정보를 확인할 수 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 성적과 표준편차를 제시하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였으나, 생성된 응답은 그와 반대되는 정보를 제공하고 있어 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원문과의 관계에서 비논리적인 점이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 잘못된 정보를 포함하고 있습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있으나, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5777691524289222</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최종등록자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: {330.11 / 9.08}
+따라서, 소프트웨어공학부 합격자들의 평균 성적은 표준변환점수 합으로 330.11이며, 표준편차는 9.08입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 원문에서 요청한 정보가 없다는 점을 무시하고 구체적인 성적 정보를 제공하고 있어 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 부적절함으로 인해 전체적인 흐름이 좋지 않습니다.
+5. Coherence Score (1-5): 2
+   - 응답의 구조는 어느 정도 일관성을 가지고 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보가 사실과 다르기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 원문의 의미와 맥락에 맞지 않는 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 내용의 부적절함으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5407212766955858</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: {330.11 / 9.08}
+따라서, 소프트웨어공학부 최초합격자의 평균 성적은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 주요 정보를 포함하고 있으며, 대부분의 세부 사항이 정확합니다. 그러나 "충원 합격자 1차 등록"과 "충원 합격자 2차 등록"에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가된 등록 정보로 인해 일관성이 떨어집니다. 원본 텍스트에는 등록에 대한 언급이 없으므로, 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다. 모든 주요 포인트가 잘 반영되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 나열되어 있습니다. 그러나 추가된 등록 정보로 인해 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 등록 정보는 원본에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보로 인해 약간의 의미적 부적절성이 발생합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.8323426795778793</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 합격자 발표 일정은 다음과 같습니다:
+1. 최초합격자 발표:
+   - 날짜: 2024년 2월 2일 (금) 오후 2시
+   - 방법: 홈페이지 개별 조회
+2. 충원 합격자 1차 발표:
+   - 날짜: 2024년 2월 14일 (수) 오전 9시
+   - 방법: 홈페이지 개별 조회
+3. 충원 합격자 1차 등록:
+   - 기간: 2024년 2월 14일 (수) ~ 2월 16일 (금) 오후 5시까지 도착
+   - 방법: 입학관리팀에서 수령 또는 홈페이지에서 출력
+4. 충원 합격자 2차 발표:
+   - 날짜: 2024년 2월 15일 (목) 오전 9시
+   - 방법: 홈페이지 개별 조회
+5. 충원 합격자 2차 등록:
+   - 기간: 2024년 2월 15일 (목) ~ 2월 16일 (금) 오후 5시까지 도착
+   - 방법: 입학관리팀에서 수령 또는 홈페이지에서 출력
+6. 충원 합격자 3차 이후 발표:
+   - 날짜: 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시까지
+   - 방법: 홈페이지 개별 조회
+모든 지원자는 합격자 발표일정에 명시된 날짜에 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 면접고사 일정에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 면접고사 일정이 2024년 1월 20일로 명시되어 있지만, 생성된 응답에서는 실기고사 일정과 면접이 실기고사 이후에 이루어진다고 언급하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트의 면접고사 일정과 생성된 응답의 내용이 서로 충돌합니다. 따라서 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 실기고사 일정에 대한 정보를 제공하고 있지만, 질문에 대한 직접적인 답변이 아닙니다. 면접고사 일정에 대한 정보가 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 약간 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 실기고사 일정과 면접 일정에 대한 정보를 포함하고 있지만, 이 두 정보 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 면접고사 일정에 대한 정보가 잘못되어 있어 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 따라서 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 적절하지 않습니다. 면접고사 일정에 대한 질문에 대해 실기고사 일정으로 대체하여 답변하고 있어, 원본 텍스트의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 일관성이 부족하여 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.4553467912115882</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 레저스포츠학과와 태권도학과의 실기고사가 있습니다. 
+또한, 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+면접은 이들 실기고사 날짜 이후에 개별적으로 이루어집니다. 정확한 면접 일정은 입학안내 홈페이지에서 안내되므로 해당 사이트를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 완전히 무시하고, 수학 시험에 대한 정보와 점수 가산에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 내용을 포함하고 있습니다. 원본 텍스트는 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 특정 과목에 대한 점수 가산을 언급하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 최저학력 기준에 대한 정보만을 제공하는 반면, 생성된 응답은 수학 시험과 관련된 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 일관성이 결여되어 있어 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 원본 텍스트와의 연결이 약하여 일관된 메시지를 전달하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다르며, 잘못된 정보를 포함하고 있습니다. 최저학력 기준이 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.3601718822448507</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>依据提供的信息，关于韩医科（한의예과）的最低入学资格标准如下：
+- 数学（微积分/几何）考试：获得数学（微积分或几何）的成绩可以获得10%的加分。
+请注意，这里提到的是对于参加数学（微积分或几何）考试的学生，在其他条件相同的情况下可以额外获得10%的标准分加分，并没有明确给出具体的最低分数要求。通常大学会设定一个总的录取分数线，包括所有科目成绩在内的综合评分达到该线才能被录取。具体最低分数可能需要参考当年的招生简章或直接咨询学校获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 명확히 반영하지 않고 있으며, 오히려 다른 정보를 제공하고 있습니다. 따라서 사실성과 관련하여 매우 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 동의대학교의 수능 최저학력 기준에 대한 정보가 전혀 일치하지 않습니다. 이로 인해 일관성 점수는 매우 낮습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 질문에 대한 직접적인 답변이 아니며, 관련 정보가 부족합니다. 그러나 일부 관련 정보가 포함되어 있어 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높게 평가됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성은 부족합니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 사실을 잘못 전달하고 있으며, 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 매우 낮은 품질을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 적절하지 않은 정보가 포함되어 있습니다. 그러나 일부 관련성이 있어 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 주제와의 관련성이 떨어져서 혼란을 줄 수 있습니다. 따라서 높은 점수를 부여합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.4470201285964235</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到2024年各专业在普通类招生（정시）中的具体最低录取标准（수능최저학력기준）。但是，通常情况下，大学会在其官方网站上发布具体的最低录取标准。因此，如果需要了解特定专业的2024年普通类招生的最低录取标准，建议访问东国大学的官方网站或联系学校的招生办公室获取最新信息。
+如果您想查看一般性的指导原则或者过去几年的数据作为参考，可以参考以下步骤：
+1. 访问东国大学的官方网站（http://ipsi.deu.ac.kr）。
+2. 在首页找到“招生”或“ Admission”的相关链接。
+3. 浏览最新的招生简章和录取标准。
+通常，最低录取标准会根据各专业的不同而有所差异。如果有特定的专业想要了解，请提供详细信息，我可以帮助您查找更具体的信息。</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 정보를 포함하고 있지만, "충원합격자를 발표합니다"라는 문구는 다소 모호하게 표현되어 있어 정확한 발표 일정이 명확히 전달되지 않습니다. 그러나 전반적으로 사실에 기반한 내용이므로 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 관련된 정보를 포함하고 있지만, "전화 연락 두절로 인해 충원합격 통보가 어려운 경우"라는 추가 정보는 원본 텍스트에 명시되어 있지 않아 일관성이 떨어집니다. 따라서 3점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 충원합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 느껴질 수 있습니다. 따라서 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 발표 일정과 관련된 정보가 잘 정리되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨리므로 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 발표 일정의 구체적인 내용이 다소 모호하게 표현되어 있어 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 전반적으로 잘 수행되고 있으나, 일관성과 정확성에서 약간의 부족함이 있어 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 추가 정보가 원본의 의도와 다소 어긋날 수 있어 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다. 따라서 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7677361337319183</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 14일(수)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 특히, 3차 이후의 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우에도 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 이 기간 동안 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 포함하고 있지만, 추가적인 내용이 포함되어 있어 원본 텍스트의 핵심 정보를 왜곡하고 있습니다. 특히, 등록비 납부와 관련된 내용은 원본 텍스트에 없으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 충원합격자 발표 일정에 대한 정보만을 제공하는 반면, 생성된 응답은 다른 주제에 대한 내용을 추가하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정에 대한 정보를 포함하고 있지만, 추가적인 내용이 포함되어 있어 주제와의 관련성이 떨어집니다. 원본 텍스트의 핵심 주제인 발표 일정 외의 정보는 불필요합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보와 다른 주제를 혼합하고 있어 논리적인 흐름이 약간 부족합니다. 발표 일정과 관련된 정보는 명확하지만, 추가된 내용이 흐름을 방해합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히, 등록비 납부와 관련된 내용은 원본 텍스트에 없는 정보입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다. 원본 텍스트의 주제와 관련 없는 내용이 추가되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 혼합되어 있어 명확하게 이해하기 어려운 부분이 있습니다. 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.4339220922907433</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>附加合格者公布时间是：
+2024年2月14日（星期三）上午9:00
+相关公告会在学校入学信息网站上进行。所有申请者都应在此日期后通过网站查看自己的合格状态，因为不会对附加合格者进行单独通知。
+请注意，所有被录取的学生都需要在指定银行于规定时间内缴纳注册费，否则将被视为自动放弃入学资格。</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수시모집 등록자의 등록 포기로 인한 결원과 정시 일반학생전형 모집인원으로 이월하여 추가 합격자를 선발하는 내용을 잘 반영하고 있습니다. 그러나 "정시&lt;나&gt;군"이라는 표현은 원문에 명시된 내용과 다소 차이가 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "정시&lt;나&gt;군"이라는 표현이 원문에 없는 내용으로, 이로 인해 일관성이 떨어집니다. 또한, 예비후보 순위에 따라 추가 합격자를 선발할 수 있다는 내용은 원문에 명시되어 있지 않아 일관성에 문제가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 추가모집과 관련된 내용을 잘 다루고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "정시&lt;나&gt;군"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원문과 다르게 해석될 수 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제시된 사실을 대체로 정확하게 반영하고 있으나, "정시&lt;나&gt;군"이라는 표현이 원문에 없는 내용으로 인해 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 표현에서 약간의 부정확성이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, "정시&lt;나&gt;군"이라는 표현이 원문과 다르게 해석될 수 있어 의미적 적절성에서 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확하게 정보를 전달하고 있습니다. 다만, 일부 표현이 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.6214974748310566</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2024년 동일 모집군의 결원 발생 시, 예비후보 순위에 따라 추가로 합격자를 선발할 수 있습니다. 또한, 정시 모집에서 미달된 인원은 정시&lt;나&gt;군으로 이월하여 추가로 합격자를 선발합니다.
+따라서, 추가모집의 가능성은 다음과 같습니다:
+1. 동일 모집군 결원 시: 예비후보 순위에 따라 충원
+2. 수시 모집에서 미달된 인원: 정시&lt;나&gt;군으로 이월하여 선발
+이러한 절차를 통해 추가 합격자를 선발할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집단위와 인원에 대한 정보가 일부 다릅니다. 예를 들어, '미래융합대학 부동산자산경영학부'와 관련된 정보는 원본 텍스트에 포함되어 있지 않으며, 지원자격에 대한 추가 조건(만 30세 이상인 자 등)도 원본 텍스트에 명시되어 있지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 제공된 정보와는 다른 모집단위와 전형명, 지원자격 조건이 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트에 포함되지 않은 추가 정보가 포함되어 있어 약간의 관련성 저하가 있습니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 추가적인 조건과 정보를 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 보이지만, 사실성과 일관성에서 큰 결함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 원본 텍스트와의 차이로 인해 혼란스러울 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.7394786881178137</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 다음과 같은 특징을 가지고 있습니다:
+1. 모집단위와 인원:
+   - 미래융합대학 라이프융합학부 (신설): 학생부종합(평생학습자전형) 11명
+   - 미래융합대학 부동산자산경영학부: 
+     - 학생부종합(성인학습자 정원내 전형) 7명
+     - 학생부종합(성인학습자 정원외 전형) 23명
+     - 학생부종합(재직자전형) 7명
+2. 지원자격:
+   - 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+3. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 소속 직원
+   - 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 공적증명서 확인 가능
+4. 재직기간:
+   - 2024년 3월 1일 기준 총 재직기간이 3년 이상
+   - 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정
+5. 전형요소 반영비율:
+   - 서류: 면접 비율은 각 모집단위별로 다르게 적용됨 (예시: 60% / 40%)
+6. 면접평가:
+   - 개별면접
+   - 평균 10분 이내
+   - 입학사정관 2인이 평가위원으로 참여
+   - 블라인드 면접 (개인신상 노출 금지, 교복 착용 금지)
+   - 절차: 대기실 → 신분 확인 → 고사장 이동 → 지원동기 발표 → 학업역량 및 전공적합성 질문 → 기타 질의응답
+7. 동점자 처리 기준:
+   - 면접 성적이 상위자
+   - 서류평가 공동체역량 영역 성적이 상위자
+   - 서류평가 전공적합성 영역 성적이 상위자
+8. 추가 제출서류 (최종등록자):
+   - 고교 졸업증명서
+   - 지원자 본인, 부모 초본 각 1부 (총 3부) [6년 과정]
+   - 고교 졸업증명서, 지원자 본인 초본 1부 [12년 과정]
+이러한 요소들을 종합적으로 평가하여 합격자를 선발합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가적인 정보도 포함되어 있지만 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.8297178584717692</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2024년 동계학기 나군 평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이 조건을 만족하는 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사의 구체적인 장소에 대한 정보를 제공하지 않으며, 원본 텍스트에서 명시된 대기실 및 입실시간에 대한 정보도 누락되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사 장소에 대한 추측을 포함하고 있어 일관성이 없습니다. 원본 텍스트의 정보와 상충합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 대한 답변을 시도하지만, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 언급이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 관련성이 부족하여 일관된 주제를 유지하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보가 누락되어 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 적절한 정보 전달이 이루어지지 않았습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.2800574103799479</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>題目：實技考試在哪裡進行？
+根據提供的信息，實技考試的詳細安排並未明確列出具體場地。但是，可以推測實技考試通常會在學校或其他合適的場所舉行，具體場地資訊應該會在官方通知或招生簡章中詳細說明。
+建議你：
+1. 查看東國大學官網上的最新招生信息。
+2. 聯繫入學管理隊以獲取更準確的地點信息。
+3. 注意學校可能發出的通知或公告，了解具體的考場安排。</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 포함되어 있지 않으며, 실기고사 진행 방식에 대한 정보가 추가로 제공되지만, 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있으며, 실기고사에 대한 구체적인 내용이 추가되었지만, 원본의 핵심 정보와는 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주제인 대기실 및 입실시간에 대한 정보가 포함되어 있지 않아 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 항목이 잘 정리되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 대기실 및 입실시간에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 관련성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.4096677497386341</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **장소**: 실기고사는 대학 내에서 진행됩니다.
+2. **필수 장비**:
+   - 운동복을 착용해야 합니다.
+   - 스파이크나 축구화 같은 특수화는 불가능하며, 신발바닥에 이물질이 가착될 수 없도록 주의해야 합니다.
+3. **종목 및 배점**:
+   - **제자리 멀리뛰기**: 240점 (24%)
+   - **메디신볼 던지기**: 243점 (23%)
+   - **Z-런**: 230점 (23%)
+4. **주의사항**:
+   - 실기 당일 부상이나 기타 사유로 인해 기권한 경우 해당 종목에 최저 점수를 부여받습니다.
+   - 각 실기종목별 2회 반칙 시 최저 점수를 받게 됩니다.
+따라서, 체육학과의 지원자는 대학 내에서 실기고사를 치르며, 필요한 장비와 규칙을 준수해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 전화 연락 여부에 대한 정보가 잘못 해석되었습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 연락이 없을 경우 등록 포기자로 간주된다고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 전화 연락을 하지 않는다고 명확히 하고 있지만, 생성된 응답은 전화 연락이 없을 경우의 상황을 설명하고 있어 서로 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 전화 연락이 없을 경우의 상황을 추가적으로 설명하여 원문에서의 핵심 질문에 대한 직접적인 답변은 아닙니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 명확하지 않아 다소 일관성이 떨어지는 부분이 있습니다. 원문과의 관계를 명확히 하지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 전화 연락이 없을 경우의 상황을 잘못 해석하고 있습니다. 이는 사실과 다르기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문과의 일치성이 떨어져 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 관계가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6464239756039608</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형 일정에 따르면, 수시 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 어려운 경우 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서, 2차 및 3차 충원합격자 발표 기간(2024년 2월 14일(목) ~ 2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+따라서, 수시 충원합격자 발표 후에는 학교에서 직접 전화를 주지는 않을 것으로 보입니다. 지원자는 이 기간 동안 학교로부터의 전화를 받는 것을 준비하고, 가능하다면 해당 기간 동안 연락이 가능한 상태로 유지하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보를 요청했으나, 해당 정보가 포함되어 있지 않다는 원문 내용을 무시하고 2024학년도 모집 상황에 대한 정보를 제공하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 명시된 수시모집 결과에 대한 정보가 없다는 점과 모순됩니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 2023학년도 수시모집 결과에 대한 질문에 대해 2024학년도 모집 상황을 언급하고 있어, 주제와 관련성이 낮습니다. 그러나 원문에서 언급된 웹사이트를 통해 추가 정보를 찾으라는 점은 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 내용의 부적절함으로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 2024학년도 모집 상황에 대한 정보를 제공하는 데 있어 어느 정도의 논리적 흐름을 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 2023학년도 수시모집 결과에 대한 질문에 대해 잘못된 정보를 제공하고 있으며, 원문에서 명시된 사실과 상충합니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 맥락과 의미에 부합하지 않으며, 주제와 관련된 정보가 아닌 다른 정보를 제공하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원문과 상충하여 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.6955777602802878</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정확한 데이터를 제공하기 위해서는 실제 모집결과나 통계가 필요합니다. 하지만, 주어진 정보에서 2024학년도 경찰행정학과의 모집 상황을 확인할 수 있습니다.
+2024학년도 경찰행정학과의 모집 상황은 다음과 같습니다:
+- **모집 인원**: 7명
+- **지원 인원**: 29명
+- **경쟁률**: 약 4.14대 1
+이 정보는 주어진 표에서 확인할 수 있습니다.
+만약 2023학년도의 정확한 모집 결과를 알고 싶다면, 해당 대학의 공식 웹사이트나 입학처에 직접 문의하시는 것이 가장 정확할 것입니다. 일반적으로 이러한 정보는 각 대학의 입학 홈페이지에서 확인 가능합니다.
+더 자세한 정보가 필요하시면, 동의대학교 입학처 웹사이트를 방문해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 수능 응시가 필요하지 않은 특정 전형에 대한 정보를 제공하고 있지만, 원문에서 명시된 "정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다."라는 사실과 상충합니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 포함하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있지만, 생성된 응답은 특정 전형에서는 수능 응시가 필요하지 않다고 주장합니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서의 핵심 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 전형에 대한 정보는 유용하므로 점수는 높습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 명확하지 않아 논리적 흐름이 다소 부족합니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서의 사실과 상충하는 내용을 포함하고 있어 정확성 점수는 낮습니다. 수능 응시가 필수라는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일관성, 사실성, 정확성에서 부족하여 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문의 의미와 관련된 내용을 다루고 있지만, 원문의 주제와 다소 벗어난 정보가 포함되어 있어 의미적으로 적절성 점수는 중간입니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 내용이 복잡할 수 있어 점수는 높지만 완벽하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4803235673148288</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 내용을 확인하기 위해, 일반적으로 대학별로 정시 모집에서 수능 응시 여부는 지원 자격 조건 중 하나입니다. 하지만 특정 전형에서는 수능 응시가 요구되지 않을 수도 있습니다.
+위 제공된 정보를 바탕으로, 다음과 같은 전형들은 수능 응시가 필요하지 않습니다:
+1. **학생부종합전형**:
+   - 학생부교과(농어촌학생전형)
+   - 학생부교과(평생학습자전형)
+   - 학생부교과(성인학습자(정원내)전형)
+   - 학생부종합(재직자전형)
+2. **실기/실적 위주 전형**:
+   - 실기/실적(경기실적우수자전형)
+   - 실기/실적(조기취업형계약학과전형)
+이러한 전형들은 주로 학생부 성적, 면접, 실기 등 다른 평가 요소를 통해 지원자를 평가합니다. 따라서 수능 응시가 필요하지 않습니다.
+그러나 일반적으로 정시 모집에서는 수능 응시가 필수 조건입니다. 만약 특정 전형에서 수능 응시가 요구되지 않는다면, 해당 전형의 세부 사항을 확인해야 합니다.
+추가 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나면 정시 지원이 불가능하다고 주장하고 있지만, 원본 텍스트에서는 졸업 시기와 관계없이 정시 지원이 가능하다고 명시하고 있습니다. 따라서 사실관계가 완전히 잘못되었습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본에서는 정시 지원이 가능하다고 하였으나, 생성된 응답에서는 불가능하다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으나, 원본 텍스트의 핵심 내용을 왜곡하여 제시하고 있습니다. 따라서 관련성은 있지만, 잘못된 정보로 인해 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실관계와 일관성, 정확성 모두 매우 낮아 전반적인 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하려고 하지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.7347795765898735</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도 동아대학교의 경우, 일반적으로 고등학교 졸업 후 10년이 경과하면 정시모집에 지원할 수 있는 자격이 없습니다. 대다수의 대학은 최대 7년 이내의 고교 졸업자만을 대상으로 합니다.
+하지만 특정 전형이나 특별한 경우가 있을 수 있으므로, 다음과 같은 절차를 따르시는 것이 좋습니다:
+1. 동아대학교 입학 홈페이지나 입학처와 직접 문의해보세요.
+2. 해당 학교의 정시모집요강을 확인하세요.
+3. 가능하다면 전문가와 상담을 받으세요.
+특히, 나군 학생부종합(평생학습자전형)과 같은 특별전형은 고등학교 졸업 후 10년이 지났더라도 지원할 수 있는 경우가 있습니다. 이 경우에는 다음과 같은 자격요건을 충족해야 합니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+- 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+따라서, 정시모집에 지원할 수 있는 유일한 방법은 특별전형을 통해 지원하는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 2024학년도 정시 일정에 대한 정보가 아닌, 잘못된 정보와 날짜를 포함하고 있습니다. 예를 들어, 최초합격자 발표일이 2023년 12월 28일로 되어 있는데, 이는 원본 텍스트와 일치하지 않습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 일정과 내용과는 상충되는 부분이 많아 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 정시 일정에 대한 정보가 아닌 다른 전형에 대한 정보를 포함하고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되어 있으나, 내용이 잘못된 정보로 구성되어 있어 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 원본 텍스트와의 연결이 없기 때문에 일관된 흐름이 부족합니다. 그러나 각 항목은 개별적으로 이해할 수 있는 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 날짜와 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 사실성, 일관성, 관련성, 정확성 모두 매우 낮아 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 비교적 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해가 어렵습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.7015840279657</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. 나군 실기/실적(경기실적우수자전형):
+   - 지원 시작일: 2024년 1월 3일 (수)
+   - 지원 마감일: 2024년 1월 12일 (금) 17:00
+   - 서류심사 결과 발표 일정: 2024년 2월 중순
+2. 수능(일반학생전형):
+   - 최초합격자 발표: 2023년 12월 28일 (목)
+   - 최종등록자 발표: 2024년 1월 9일 (금)
+3. 나군 학생부교과(농어촌학생전형):
+   - 지원 시작일: 2024년 1월 3일 (수)
+   - 지원 마감일: 2024년 1월 12일 (금) 17:00
+   - 서류심사 결과 발표 일정: 2024년 2월 중순
+4. 나군 학생부교과(농어촌학생전형) - 정원외 모집단위:
+   - 지원 시작일: 2024년 1월 3일 (수)
+   - 지원 마감일: 2024년 1월 12일 (금) 17:00
+   - 서류심사 결과 발표 일정: 2024년 2월 중순
+이러한 일정은 각 전형별로 동일하게 적용되며, 정확한 날짜와 시간은 공식 입학처 웹사이트를 통해 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 정시 모집 일정에 대한 정보가 아닌, 나군 학생부교과 및 학생부종합 전형에 대한 서류 제출 기간과 장소에 대한 내용으로, 원본 텍스트의 주요 내용을 왜곡하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 정시 모집 일정에 대한 구체적인 정보를 제공하고 있지만, 생성된 응답은 특정 전형에 대한 정보로 대체되어 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 동의대학교의 정시 모집 일정에 대한 정보를 제공하는 반면, 생성된 응답은 특정 전형에 대한 서류 제출 정보로 초점이 맞춰져 있습니다. 따라서 관련성 점수는 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 문장 구조와 표현이 자연스러워 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 각 항목이 나열되어 있지만, 원본 텍스트와의 연결성이 부족하여 전체적으로 일관된 흐름이 부족합니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않고 있으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성에서 낮은 점수를 받았으므로, 전체적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제가 다르기 때문에 의미 적합성 점수는 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에는 한계가 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.7101920595727631</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집 일정은 다음과 같습니다:
+1. 나군 학생부교과(농어촌학생전형) - 정원외:
+   - 서류 제출 기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+   - 서류 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+2. 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형):
+   - 서류 제출 기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+   - 서류 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+3. 나군 실기/실적(경기실적우수자전형):
+   - 서류 제출 기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+   - 서류 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. 나군 학생부교과(농어촌학생전형) - 정원외:
+   - 서류 제출 기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+   - 서류 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+5. 나군 학생부종합(성인학습자(정원내)전형):
+   - 서류 제출 기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+   - 서류 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+6. 나군 학생부종합(성인학습자(정원외)전형):
+   - 서류 제출 기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+   - 서류 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+7. 나군 학생부종합(재직자전형):
+   - 서류 제출 기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+   - 서류 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+8. 나군 학생부종합(조기취업형계약학과전형):
+   - 서류 제출 기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+   - 서류 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+이 일정은 모든 정시모집 전형에 공통적으로 적용되며, 각 전형별로 추가적인 서류 제출 요건이나 절차가 있을 수 있으므로, 해당 전형의 세부 사항을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원 가능한 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서는 수능 미응시자는 지원이 불가능하다고 명시하고 있습니다. 따라서 생성된 응답은 원본 텍스트와 상충하는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다. 이는 명백한 모순입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 미응시자와 관련된 전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 수능 미응시자의 지원 불가능성을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형을 나열하고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 각 전형에 대한 설명은 일관되게 나열되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 수능 미응시자가 지원할 수 있다고 잘못된 정보를 제공합니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 수능 미응시자의 지원 가능성을 잘못 전달하고 있습니다. 따라서 의미적 적절성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6485240536968301</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **학생부교과(농어촌학생전형) - 정원외**
+   - 이 전형은 수능을 응시하지 않은 농어촌 학생들을 대상으로 합니다.
+2. **학생부종합(평생학습자전형)**
+   - 이 전형도 수능 미응시자를 포함하여 지원 가능합니다.
+3. **학생부종합(성인학습자(정원내)전형)**
+   - 이 전형 역시 수능 미응시자를 대상으로 합니다.
+4. **학생부종합(성인학습자(정원외)전형)**
+   - 이 전형도 수능 미응시자를 지원 가능합니다.
+5. **학생부종합(재직자전형)**
+   - 이 전형 역시 수능 미응시자를 대상으로 합니다.
+6. **학생부종합(조기취업형계약학과전형)**
+   - 이 전형도 수능 미응시자를 지원 가능합니다.
+이러한 전형들은 주로 고등학교 졸업 자격을 갖춘 성인 학습자, 농어촌 지역 출신 학생, 재직자 등을 대상으로 하며, 수능 점수보다는 학생부 교과성적 및 면접 등의 평가를 중점적으로 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전자공학과의 충원 합격이 1차와 2차까지 이루어졌다고 언급하고 있지만, 원본 텍스트에서는 충원 합격 차수에 대한 정보가 없다고 명시되어 있습니다. 따라서 일부 사실이 왜곡되었고, 정확한 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 충원 합격 차수에 대한 정보가 없다는 원본의 주장을 무시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 중요한 세부사항을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 전자공학과의 충원 합격 인원 수에 대한 정보를 제공하지만, 원본 텍스트의 사실과 상충하는 부분이 있습니다. 특히, 충원 합격 차수에 대한 정보가 없다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있으며, 전반적인 정보의 정확성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 충원 합격 차수에 대한 정보가 없다는 점을 무시하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 복잡한 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.6688450655142582</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2차까지 전년도 전자공학과의 충원 합격이 이루어졌습니다. 
+참조할 수 있는 정보는 다음과 같습니다:
+ICT융합공과대학 / 전기공학과, 전자공학과 / 69 / 105 / 1.52 / 36 / { 286.64 /  21.80 / } / { 4.55 /  1.24 / } / { 5.37 /  0.60 / } / { 397.20 /  25.41 / } /
+이 줄에서 "충원 합격 (후보순위)" 항목을 보면 36명이 충원 합격하였으며, 이는 1차와 2차로 이루어졌습니다.
+- 1차: { 0 /  0 /  추가내용 참조 /  0 /  0 /  0 /  0 /  7 / }
+- 2차: { 36 / } 
+따라서 전년도에 전자공학과의 충원 합격은 1차와 2차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학처의 전화번호가 직접적으로 언급되지 않았다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명확히 제시하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 입학처의 전화번호를 찾는 방법에 대한 일반적인 조언을 제공하지만, 원본 텍스트의 핵심 정보인 전화번호를 무시하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 일부 문장이 어색하게 구성되어 있어 유창성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 방법을 제시하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 부족합니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 잘못 전달되고 있습니다. 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 부적절한 정보가 포함되어 있습니다. 의미적으로 적절성이 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 어느 정도 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다. 따라서 이해 가능성이 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.5447486676929123</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학처의 전화번호는 직접적으로 언급되어 있지 않습니다. 일반적인 대학교 입학처의 연락처를 찾기 위해서는 다음과 같은 방법을 사용할 수 있습니다:
+1. 동의대학교 공식 홈페이지를 방문하여 "입학처"나 "문의하기" 등의 링크를 클릭해보세요.
+2. 대학의 공지사항이나 안내서를 확인해 보세요. 종종 이런 정보들이 포함되어 있을 수 있습니다.
+3. 소셜미디어 계정을 확인해 보세요. 대학은oftentimes在其转换后的中文句子中，我们需要保持原有的意思，同时确保语法正确和通顺。因此，可以这样表达：
+---
+提供的信息中没有直接提到东义大学入学处的电话号码。要查找一般大学入学处的联系方式，可以尝试以下方法：
+1. 访问东义大学官方网站，点击“入学处”或“联系我们”等链接。
+2. 查看大学的通知和指南，这些信息通常会包含在其中。
+3. 检查大学的社交媒体账号，通常也会发布此类信息。
+---
+这样既保持了原文的意思，又确保了中文表达的准确性和流畅性。</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 중요한 사실이 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 핵심 사항을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.9702008597513464</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 지원자는 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류와 제출 기간, 주의사항 등을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 필요한 모든 정보를 적절히 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.9000768957079442</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형에서 제출해야 할 서류는 다음과 같습니다:
+### 6년 과정 (농어촌(읍∙면)지역 소재 중·고등학교에서 전 교육과정을 이수한 자)
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자) 
+- 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)
+- 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부
+### 12년 과정 (부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자)
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종 등록자 중 고교 졸업예정자는 졸업 이후 추가 제출서류를 제출해야 합니다:
+### 최종등록자 중 고교 졸업예정자의 추가 제출서류
+- 고교 졸업증명서
+- 지원자 본인, 부모의 초본 각 1부 (총 3부) - 6년 과정
+- 고교 졸업증명서, 지원자 본인 초본 1부 - 12년 과정
+제출 기간은 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한하며, 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀입니다.
+서류 미제출자는 불합격 처리되므로 반드시 확인하고 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 제출해야 할 서류 목록을 정확하게 나열하고 있습니다. 그러나 "최종 등록자 중 고교 졸업예정자"라는 표현은 원본 텍스트의 "최종등록자"와 다소 차이가 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 서류 목록과 제출 기한에 대한 정보가 잘 연결되어 있으나, "졸업예정자"라는 표현이 원본의 "최종등록자"와 일치하지 않아 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류와 제출 기한에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록과 추가 서류에 대한 설명이 명확하게 연결되어 있습니다. 그러나 "졸업예정자"라는 표현이 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "졸업예정자"라는 표현이 원본의 의미와 다소 다르게 해석될 수 있어 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 그러나 일부 표현에서의 차이로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "졸업예정자"라는 표현이 원본의 의도와 다소 다르게 해석될 수 있어 의미적 적절성에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 이해 가능성에서 완벽하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8797212288977604</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 다음과 같은 서류를 제출해야 합니다:
+- 지원자 본인의 주민등록초본 1부 
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종 등록자 중 고교 졸업예정자는 졸업 이후에 다음과 같은 추가 서류를 제출해야 합니다:
+- 고교 졸업증명서, 지원자 본인 초본 1부
+이러한 서류들은 2024년 1월 3일(수)부터 1월 12일(금)까지 제출해야 하며, 도착분에 한합니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 기회균등 전형이 존재하지 않음을 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 기회균등 전형이 없다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.6929166923105229</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 저소득 기회균등 전형을 실시하지 않습니다. 관련하여 주어진 정보에서 변경사항이나 해당 전형에 대한 내용이 없습니다.
+만약 추가 정보가 필요하시다면, 공식 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 탐구 영역의 등급이 절사 처리되지 않는다고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 절사 처리에 대한 명확한 정보가 없다는 점을 무시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 탐구 영역의 등급 산출 방법에 대한 정보를 제공하고 있지만, 원본 텍스트의 질문에 대한 직접적인 답변은 아닙니다. 그러나 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 등급 산출 방법을 단계적으로 설명하고 있습니다. 그러나 원본 텍스트와의 연결이 약해 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있어 정확성이 낮습니다. 원본 텍스트에서 제공된 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.5443501895304083</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 탐구 영역의 등급은 절사 처리되지 않습니다. 즉, 2개 과목의 평균을 계산할 때 2.5등급이 나오면 그대로 2.5등급으로 반영됩니다.
+수능 탐구 영역의 등급 산출 방법은 다음과 같습니다:
+1. 두 과목의 등급을 더한 후 2로 나눕니다.
+2. 결과를 소수점 첫째자리까지 반올림합니다 (예: 2.5는 그대로 2.5).
+따라서, 예시에서의 경우 2개 과목이 각각 2등급과 3등급이라면 평균은 (2+3)/2 = 2.5가 됩니다.
+결론적으로, 2.5등급은 그대로 반영되며 절사 처리는 이루어지지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 일부 정보를 포함하고 있지만, 3차 발표와 관련된 정보가 누락되어 있습니다. 또한, 등록 기회에 대한 언급이 있지만, 원본 텍스트에서 언급된 3차 이후 발표에 대한 정보가 포함되어 있지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 3차 발표 이후의 정보가 누락되어 있어 일관성이 부족합니다. 특히, 3차 이후 발표에 대한 언급이 없어서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 충원 합격자 발표에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표와 등록에 대한 정보를 명확하게 전달하고 있습니다. 그러나 3차 발표에 대한 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 3차 발표와 관련된 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 일부 정보의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 3차 발표에 대한 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.6336290836964048</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 충원 합격자는 다음과 같이 발표됩니다:
+1. 최초 충원 합격자 발표:
+   - 날짜: 2024년 2월 14일(수) 09:00
+   - 방법: 홈페이지 개별 조회
+2. 최초 충원 합격자 등록:
+   - 기간: 2024년 2월 14일(수) 09:00 ~ 16:00
+   - 방법: 지정은행에서 납부
+3. 2차 충원 합격자 발표:
+   - 날짜: 2024년 2월 15일(목) 09:00
+   - 방법: 홈페이지 개별 조회
+4. 2차 충원 합격자 등록:
+   - 기간: 2024년 2월 15일(목) 09:00 ~ 16:00
+   - 방법: 지정은행에서 납부
+따라서, 정시모집의 충원 합격자는 최초와 2차로 발표되며, 각각 등록 기회가 주어집니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 입학 기준과 관련된 정보를 제공하고 있지만, 원본 텍스트의 구체적인 수치와 사실을 왜곡하거나 잘못 해석하고 있습니다. 예를 들어, 원본 텍스트에서 제시된 평균 점수와는 다른 수치를 사용하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 제공된 정보와 다르게, 새로운 수치와 정보를 제시하고 있어 서로 충돌하는 내용이 발생하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주어진 질문에 대한 직접적인 답변을 제공하지 않고 추가적인 정보를 제시하고 있습니다. 따라서 관련성은 있지만, 질문에 대한 명확한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 입학 기준과 관련된 수치가 잘못 제시되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성 모두 부족하여 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장이 복잡하게 구성되어 있어 명확하게 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.5554464145779181</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. e비즈니스학과的招生计划和录取标准。
+2. 该专业的最低录取分数线。
+3. 2024年考生的具体情况。
+根据提供的信息，我们可以做一些推断：
+1. **e비즈니스学专业的情况**：
+   - 招生人数：10人
+   - 报名人数：89人
+   - 竞争比：8.9:1
+2. **录取标准**：
+   - 从表格中可以看到，该专业的最低录取分数线是438.60分（标准化转换总分）。
+   - 英语等级平均为3.20级。
+假设一个考生的e비즈니스学成绩如下：
+- 国语 + 数学 + 探究(2个) (含加分后) 标准化转换总分为460分
+- 英语等级为4级
+如果该考生的成绩达到或超过438.60分，并且英语等级至少为3.13级（平均值），那么理论上是有可能通过正取批次被录取的。
+但是，由于竞争比高达8.9:1，实际录取分数可能会更高。因此，即使成绩达到了460分，也不一定能确保录取，因为还需要考虑其他考生的具体情况和学校最终确定的最低分数线。
+建议：
+- 查看最新的招生简章或咨询学校招生办公室以获取最准确的信息。
+- 关注后续发布的补充录取信息（如第一次补录、第二次补录等）。
+综上所述，虽然该考生的成绩看起来不错，但是否能通过正取批次被e비즈니스学专业录取还需要进一步确认。建议直接联系学校招生办获取最新和详细的信息。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 수능 등급과 표준편차를 언급하고 있지만, 원본 텍스트에서 제공된 수능 4개 영역 등급 평균(4.53)을 무시하고 있습니다. 따라서, 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 등급 5.3이 합격 가능성이 높다고 주장하는 부분에서 원본 텍스트의 "합격하기 어려울 수 있습니다"라는 내용과 상충합니다. 이로 인해 일관성이 떨어져 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊고, e비즈니스학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 원본 텍스트와 다르게 해석될 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 평균 수능 등급과 관련된 중요한 사실을 누락하고 있습니다. 이로 인해 정확성 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 일부 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 다르게 해석될 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 따라서 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.8171506883030786</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 최종등록자 표를 보면, e비즈니스학과의 평균 수능 등급은 3.66이며, 표준편차는 1.24입니다.
+이 정보로 볼 때, 정시 등급 5.3은 상당히 높은 점수입니다:
+- e비즈니스학과의 평균 수능 등급: 3.66
+- e비즈니스학과의 표준편차: 1.24
+정시 등급 5.3은 e비즈니스학과의 평균 수능 등급(3.66)보다 훨씬 높습니다. 표준편차(1.24)를 고려해도, 5.3은 상위자에 해당합니다.
+따라서, 정시 등급이 5.3이라면 e비즈니스학과의 최초 합격 가능성은 매우 높다고 볼 수 있습니다. 실제로는 모집인원, 지원자의 다양성 등의 요인이 합격 여부를 결정할 수 있으나, 등급만으로 보면 5.3은 상당히 높은 점수입니다.
+결론적으로, 정시 등급이 5.3이라면 e비즈니스학과의 최초 합격 가능성은 매우 높다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 e비즈니스학과의 예비 합격 가능성에 대한 정보와 관련이 없으며, 전혀 다른 내용을 다루고 있습니다. 원본 텍스트의 핵심 사실을 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 내용과는 완전히 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 없으며, 질문의 맥락과도 맞지 않습니다. 전혀 다른 주제를 다루고 있어 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보로 가득 차 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 원본과의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.3505112555304901</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了评估您是否有资格被电子商务专业预录取,我们需要考虑以下几个因素:
+1. 您的成绩单和标准化考试成绩。根据表格中的信息,电子商务专业的标准是:
+   - 国语国文学科: 80分以上
+   - 数学学科: 75分以上
+   - 英语学科: 3级或以上
+2. 根据您的描述(国语91分,数学86分,英语4级),您的成绩看起来不错。特别是国语和数学都超过了标准要求。
+3. 您还需要提交其他申请材料,如高中成绩单等。
+4. 面试表现也很重要。虽然您没有提到面试情况,但良好的面试表现可以弥补部分分数差距。
+5. 由于名额有限,竞争会很激烈。即使您的成绩接近标准,也不一定能被预录取。
+综上所述,以您目前的成绩来看,有较大可能性获得预录取资格,但仍需满足其他申请要求并做好面试准备。建议您尽快提交完整申请材料,保持积极态度参加后续环节。祝您好运!</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 성적에 대한 정보가 부정확합니다. 원본 텍스트에서는 영어 등급 평균이 2.34이고 수능 4개 영역 등급 평균이 3.37이라고 명시되어 있지만, 생성된 응답에서는 간호학과의 성적 평균을 3.75~4.00으로 제시하고 있습니다. 이는 원본 정보와 일치하지 않으며, 다른 정보들도 일부 추정에 기반하고 있어 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 간호학과의 평균 성적에 대한 정보가 상충합니다. 또한, 경쟁률에 대한 추정치도 원본 텍스트에 명시된 정보가 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 합격 가능성에 대한 여러 요소를 분석하고 있습니다. 원본 텍스트의 주요 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 정보가 추가되면서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 간호학과의 평균 성적에 대한 정보가 부정확하여 전반적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 질문에 대한 적절한 분석을 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 추가되면서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.5977709078101167</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44라는 점수만으로는 확실한 합격 여부를 판단하기 어렵습니다. 하지만 몇 가지 정보를 바탕으로 분석해볼 수 있습니다.
+1. **성적 평균**: 간호학과의 성적 평균은 대략 3.75~4.00 정도로 보입니다 (예: 국어국문학과는 293.50, 중어중국학과는 263.60 등).
+2. **등급**: 영어 등급이 3.88으로 높은 편이며, 이는 좋은 점수입니다.
+3. **경쟁률**: 간호학과의 경쟁률은 상대적으로 낮지 않으나, 정확한 숫자를 알 수 없습니다. 하지만 6:1에서 20:1 사이 정도로 추정할 수 있습니다.
+4. **전형 방식**: 동의대학교는 수능 성적을 주요 평가 기준으로 사용하므로, 성적이 조금 낮더라도 다른 요소들이 좋은 경우 합격 가능성은 있습니다.
+결론적으로:
+- 3.44라는 점수만으로는 불리한 편이지만,
+- 영어 등급이 높고,
+- 경쟁률이 낮다면,
+- 다른 성적과 면접 등의 평가에서 좋은 결과를 얻으면 합격 가능성은 있습니다.
+추천 사항:
+1. **면접 준비**: 면접에서도 좋은 점수를 받도록 충분히 준비하세요.
+2. **추천서 및 자기소개서**: 이 부분도 중요하므로 잘 작성해보세요.
+3. **기타 성적**: 탐구 과목 등 다른 성적이 높다면 이를 활용할 수 있습니다.
+더 자세한 정보를 얻으시려면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 2.52의 성적이 합격 가능성이 높다는 원본 텍스트의 주장을 반박하고 있습니다. 따라서 사실관계에서 일부 불일치가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 2.52의 성적이 합격 가능성이 높다는 원본의 주장을 반대하는 내용을 포함하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 모집 요강과 관련된 정보를 제공하고 있지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 점수와 관련된 정보를 제공하지만, 2.52의 성적에 대한 해석이 원본 텍스트와 다르기 때문에 정확성에서 일부 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실관계와 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 원본 텍스트의 맥락과는 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.6469188579667339</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 모집요강을 참고하여 답변 드리겠습니다.
+간호학과는 2023년도에 다음과 같은 기준을 가지고 있었습니다:
+- 모집인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+- 최종 합격자 평균 점수:
+  - 국어 + 수학 + 탐구(2개) 표준 변환점수 합: 357.63 (평균)
+  - 영어 등급: 1.86 (평균)
+이 기준을 고려하면, 정시 성적이 2.52인 경우 간호학과에 최종합격하기는 어렵다고 보입니다.
+하지만 다음과 같은 요소들이 합격 가능성에 영향을 미칠 수 있습니다:
+1. **개별 지원자의 성적 분포**: 전체 지원자들의 성적 분포가 어떻게 되는지 중요합니다. 만약 전체 지원자의 성적이 상대적으로 낮다면, 2.52의 점수가 더 높게 평가될 수 있습니다.
+2. **추천서 및 자기소개서 등 서류평가**: 간호학과는 종종 추천서나 자기소개서 등을 중요하게 평가하기 때문에, 이 부분에서 좋은 평가를 받으면 도움이 될 수 있습니다.
+3. **면접 성적**: 일부 전형에서는 면접 점수가 합격 결정에 큰 영향을 미칩니다. 만약 면접에서도 우수한 성적을 얻는다면, 2.52의 성적이 더 높게 평가될 수 있습니다.
+4. **전형 유형**: 간호학과는 종종 특별한 전형 요건이 있을 수 있으므로, 정확한 최저 점수를 확인해야 합니다.
+따라서, 2.52의 성적만으로는 확실하게 합격할 수 없다고 볼 수 있지만, 다른 평가 요소들을 잘 준비한다면 가능성은 열려 있다고 할 수 있습니다. 
+추천되는 조치:
+- **전형 자료 확인**: 최신 모집요강을 확인하여 정확한 기준을 파악하세요.
+- **면접 준비**: 면접 준비를 철저히 하세요.
+- **서류 준비**: 추천서 및 자기소개서 등을 잘 작성해 보세요.
+결론적으로, 2.52의 성적만으로는 최종 합격하기 어렵지만, 다른 평가 요소들을 잘 준비한다면 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.7의 성적이 간호학과의 평균 등급보다 낮다고 언급하고 있지만, 실제로는 3.7이 평균 등급보다 높은 점수입니다. 따라서 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 간호학과에 지원할 수 있다고 언급하지만, 경쟁률이 높아 합격 가능성이 낮다고도 말합니다. 이는 다소 모순된 정보로, 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 간호학과에 지원하는 것과 관련된 여러 요소를 잘 설명하고 있으며, 질문의 주제와 매우 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 잘 작성되었고, 문법적으로도 큰 문제가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 일부 정보는 정확하지만, 3.7의 성적이 평균보다 낮다는 주장은 사실과 다릅니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 괜찮은 점수를 받았지만, 사실성과 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.5888783511929122</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 성적을 가지고 간호학과에 정시로 지원하는 것은 가능하지만, 경쟁률이 매우 높아서 낮은 확률일 것입니다.
+간호학과는 일반적으로 높은 경쟁률을 보입니다. 특히 간호사 자격증 취득을 위한 실무 능력과 관련된 교육이 강조되기 때문에, 학생부와 면접에서 우수한 평가를 받는 것이 중요합니다.
+다음은 고려해야 할 몇 가지 포인트입니다:
+1. **학업역량**: 수능 성적 외에 학교생활기록부에서 보여줄 수 있는 학업 역량이 중요합니다. 특히 과목별 성적이 높거나, 진로 관련 활동을 많이 한 경우 이점이 될 수 있습니다.
+2. **면접 성과**: 면접에서는 간호사로서의 자질과 열정을 잘 보여줘야 합니다. 간호사가 되고 싶은 이유와 미래 계획 등을 명확하게 설명할 수 있어야 합니다.
+3. **추천서나 특별한 경력**: 특정 활동이나 프로젝트를 통해 얻은 추천서나 특별한 경력을 가지고 있다면 이점이 될 수 있습니다.
+4. **경쟁률**: 간호학과의 정시 모집인원과 지원 인원을 확인하여 현재의 경쟁률을 파악해야 합니다. 경쟁률이 높다면, 학업역량과 면접 성과가 더욱 중요해집니다.
+5. **대학별 특성**: 동의대학교 간호학과는 특정 전형 요소를 중점적으로 평가하기 때문에, 해당 대학의 전형요소와 잘 맞는 지원자에게 유리합니다.
+결론적으로 3.7의 성적만으로는 낮은 확률이지만, 학업역량과 면접 성능을 최대한 발휘한다면 가능성을 높일 수 있습니다. 따라서 추가적인 준비를 하면서 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 평균 성적에 대한 정보를 제공하지만, 원본 텍스트의 주요 사실인 간호학과의 평균 등급과 합격 가능성에 대한 명확한 언급이 부족합니다. 또한, "2.58이라는 점수는 상당히 낮은 편입니다"라는 주장은 원본 텍스트의 내용과 모순됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 성적에 대한 해석이 다르며, 원본 텍스트의 합격 가능성에 대한 긍정적인 언급과는 상반된 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 핵심 질문인 합격 가능성에 대한 직접적인 답변이 부족합니다. 그러나 경쟁률과 면접의 중요성을 언급하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 사실과 상충하는 부분이 있어 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5588143273446601</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 경쟁률은 6.59로 매우 높습니다 (145명 지원자 중 22명 선발). 
+성적만으로 판단하면, 평균적인 수능 성적이 357.63점인 반면에 2.58이라는 점수는 상당히 낮은 편입니다.
+하지만 정시 합격 여부는 단순 성적으로 결정되는 것이 아닙니다:
+1. 경쟁률이 매우 높기 때문에 낮은 점수로도 합격 가능성은 있습니다.
+2. 면접 등 다른 평가 요소가 중요한 역할을 합니다.
+3. 지원자의 전반적인 자질과 적합성 등을 종합적으로 판단합니다.
+따라서:
+- 성적이 낮더라도 최선의 준비를 해야 합니다.
+- 면접 등 다른 평가 항목에서 좋은 점수를 받는 것이 중요합니다.
+- 지원자들의 다양성을 고려하므로, 개인적 특성이 뛰어나다면 합격 가능성도 있습니다.
+결론적으로 확실한 답변은 불가능하지만, 적극적인 준비와 노력이 필요할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 7번 학생의 합격 가능성에 대한 질문에 대해 추가 정보를 요구하고 있으며, 제공된 데이터에 대한 해석이 포함되어 있지만, 원본 텍스트의 핵심 사실인 "예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다"는 내용을 명확히 반영하지 않고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그 가능성을 불확실하게 만들고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보와는 다소 거리가 있습니다. 예비 7번의 합격 가능성에 대한 직접적인 언급이 부족하여 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다. 따라서 유창성 점수는 높지만 완벽하지는 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적 흐름이 다소 부족합니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다. 이로 인해 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하려고 하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 명확하게 전달되지만, 원본 텍스트와의 관련성이 부족하여 이해하기 어려운 부분이 있습니다. 따라서 이해 가능성 점수는 중간입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.5689259797351602</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要更多的信息。您是想了解是否会被游戏学系的预录取编号为7的学生录取吗？还是有其他具体的问题？
+根据提供的表格信息，“ICT융합공과대학 / 게임공학과” 的招生名额和申请人数如下：
+- 招生名额: 3
+- 申请人数: 16
+从这些数据来看，预录取（예비번호）7号的学生是否能被录取取决于最终的录取分数线和其他学生的成绩。通常情况下，预录取名单上的学生会被优先考虑，但具体能否录取还需要看实际的成绩排名。
+如果您是预录取编号为7的学生，并且希望了解录取的可能性，建议您关注以下几点：
+1. **查看最终录取分数线**：了解游戏学系的具体录取标准。
+2. **成绩排名**：确认自己在所有申请者的成绩中所处的位置。
+3. **学校的通知和公告**：密切关注学校的官方通知和公告，通常会在公布预录取名单后进行最终的录取确认。
+如果您有具体的分数或其他相关信息，可以提供给我，我可以帮助您进一步分析。</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 점수와 관련된 정보는 포함하고 있지만, 수능 최저 기준이 없다는 점과 전형 요소 반영 비율에 대한 정보는 출처 텍스트와 일치하지 않거나 명확하지 않습니다. 따라서 일부 사실이 정확하지 않거나 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 출처 텍스트의 주요 내용과 일치하는 부분이 있지만, 전형 요소 반영 비율과 수능 최저 기준에 대한 정보는 출처와 일치하지 않거나 모호합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 점수와 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 일부 추가 정보는 질문의 핵심과는 다소 벗어나 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 출처와 일치하지 않아 전체적인 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 점수와 관련된 정보는 포함하고 있지만, 전형 요소 반영 비율과 수능 최저 기준에 대한 정보는 정확하지 않거나 불완전합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 의미가 잘 전달됩니다. 그러나 일부 정보는 출처와 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 복잡한 문장 구조가 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.6525375382292072</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 게임공학과의 정시 모집요강을 바탕으로 분석해보겠습니다.
+1. **전형 요소 반영 비율**:
+   - 게임공학과는 전기공학과, 전자공학과와 함께 "전기공학과, 전자공학과"로 분류되어 있습니다.
+   - 이 학과의 전형요소 반영비율은 { 4.18 /  1.20 / }입니다.
+2. **수능 최저 기준**:
+   - 게임공학과는 수능 최저기준이 없습니다.
+3. **전형 요소 분석**:
+   - 학생부교과: 4.18
+   - 출결: 1.20
+4. **수능 점수 평균**:
+   - 게임공학과의 수능 최저점은 303.05입니다.
+   - 현재 수능 점수가 4.16으로, 이는 약 308-312 범위에 해당합니다.
+5. **추정 합격 가능성**:
+   - 현재 수능 점수로는 충분히 합격 가능성이 있습니다.
+   - 하지만 정확한 합격 확률은 모집인원과 지원자들의 전체 성적 분포를 고려해야 합니다.
+6. **추가 합격 가능성**:
+   - 게임공학과의 모집인원은 3입니다.
+   - 현재 수능 점수로는 상위권에 속할 가능성이 높습니다.
+   - 그러나 정확한 추가 합격 횟수를 예측하기 위해서는 전체 지원자의 성적 분포와 경쟁률을 고려해야 합니다.
+**결론**: 
+현재 수능 점수 4.16로 게임공학과에 지원하면 추가 합격 가능성은 높습니다. 하지만 정확한 추가 합격 횟수를 예측하기 위해서는 전체 지원자의 성적 분포와 경쟁률을 고려해야 합니다. 현재 수능 점수로는 상위권에 속할 가능성이 높으므로, 최소 1개 이상의 합격 가능성은 있습니다.
+추가적으로, 다른 전형(예: 실기/실적 위주)이나 지원 자격을 확인하고, 다양한 전략을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보와 관련 없는 내용을 포함하고 있습니다. 원본 텍스트는 경영정보학과의 평균 등급에 대한 정보를 제공하지만, 생성된 응답은 다른 통계와 분석을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트는 특정한 성적에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 다른 정보에 초점을 맞추고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용과는 전혀 다른 방향으로 나아가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 관련성 부족으로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 통계와는 다른 수치를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전혀 다른 주제를 다루고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.6015920229592825</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息。根据您提供的数据和表格信息，我们可以从以下几个方面进行分析：
+1. **招生标准**：首先需要确认经管学院（상경대학）的经营信息学部（경영정보학과）在2024年是否有特定的成绩要求。
+2. **成绩分布情况**：查看经营信息学部的具体分数分布。您提供的表格中包含了一些相关数据，但没有直接显示该专业的具体分数线或最低标准。
+3. **竞争情况**：了解其他考生的平均分和最高分可以帮助判断您的成绩是否足够。
+根据您提供的信息，经营信息学部2024年的部分统计数据如下：
+- 国语 + 数学 + 两门选修课（含加分）标准化总分均值: 311.00
+- 英语等级均值: 3.33
+- 高考四科等级均值: 4.40
+您的成绩是3.75，这在英语等级上看起来不错。但是具体是否能够被录取还需要参考该专业的最低分数线或竞争情况。
+建议您：
+1. 查看学校官网发布的2024年招生简章和具体的录取标准。
+2. 如果可能的话，咨询学校的招生办公室获取更详细的信息。
+3. 参考其他考生的成绩分布情况来判断自己的竞争力。
+希望这些信息对您有所帮助！如果需要进一步的帮助，请告诉我更多具体细节。</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 경영정보학과의 평균 등급이나 합격 가능성에 대한 정보를 제공하지 않고 있습니다. 대신, 다른 정보와 질문을 제시하고 있어 사실적 정확성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 이 점은 평가에 큰 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보나 오해를 불러일으킬 수 있는 내용이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 내용을 다루고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 이 점은 평가에 큰 영향을 미치지 않습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.531193844309546</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部（经管学院）的招生计划和要求。
+2. 国家或地方教育部门规定的最低录取分数线。
+根据您提供的数据表，我们可以看到以下相关信息：
+- 经营信息学部 (经营信息学) 的招生人数为 9 名。
+- 支持该专业的学生需要参加普通高考（一般学生类型）。
+- 最终注册者的平均成绩和标准差等详细信息。
+但是，具体到您提到的4.2这个分数是否足够，我们需要知道以下几点：
+1. 经营信息学部的具体录取分数线是多少？
+2. 4.2分在所有科目中的排名情况如何？
+由于没有直接给出具体的最低录取分数线，我们只能根据提供的数据进行大致判断。通常情况下，如果您的综合成绩（包括国语、数学、英语等）达到或超过该专业的平均录取分数，并且满足其他条件（如学科等级要求），那么您有可能被录取。
+建议您可以：
+1. 查看学校官网发布的具体招生简章和分数线。
+2. 联系学校的招生办公室获取更详细的信息。
+3. 如果可能的话，参考往年的录取数据进行判断。
+如果您需要进一步的帮助或有其他问题，请告诉我。</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 전달하고 있습니다. 원문에서는 영어 등급 평균이 3.25라고 명시되어 있으나, 생성된 응답에서는 2.88로 잘못 기재되어 있습니다. 또한, 수능 4개 영역 등급 평균도 4.31로 언급되었으나, 생성된 응답에서는 관련 정보가 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보가 포함되어 있습니다. 예를 들어, 영어 등급 평균이 2.88로 잘못 기재되어 있으며, 이는 원문에서 제공된 3.25와 상충합니다. 또한, 수능 4개 영역 등급 평균에 대한 언급이 없어서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 입학 기준에 대한 정보를 제공하고 있지만, 원문에서 제시된 특정 성적에 대한 질문에 대한 직접적인 답변이 부족합니다. 따라서 관련성은 있지만, 원문에 대한 직접적인 답변이 부족하여 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 관련성도 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 제공된 정보가 원문과 일치하지 않기 때문에 의미적으로 적절하지 않습니다. 그러나 주제에 대한 논의는 이루어지고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 한국어 사용자에게는 언어 장벽이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.5886893495187402</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部（一般学生）的录取标准。
+2. 您的成绩是否符合该专业的最低要求。
+根据提供的表格数据，我们可以看到经营信息学部（一般学生）的具体情况如下：
+- **招生单位**：经营信息学部
+- **2024年招生人数**：33人
+- **报名人数**：95人
+- **竞争比**：2.87
+- **国语+数学+选修课（含加分）标准分总和平均值/标准差**：450.78 / 6.92
+- **英语等级平均值/标准差**：2.88 / 0.56
+- **四门考试科目等级平均值/标准差**：3.88 / 0.14
+- **四门考试科目（含加分）标准分总和平均值/标准差**：497.78 / 6.2
+从这些数据中，我们可以看出经营信息学部的录取分数相对较高。具体来说：
+- 国语+数学+选修课（含加分）的标准分总和平均值为450.78。
+- 英语等级平均值为2.88。
+您的成绩是5.33，这在英语等级方面看起来不错，但我们需要更具体的分数来判断是否能够达到国语、数学和选修课的平均标准分。通常来说，如果您的总分接近或超过450.78，并且英语等级不低于2.88，那么您有可能被录取。
+但是，由于每个专业的具体要求可能会有所不同，建议直接查看该专业在招生简章中的详细分数要求或者咨询学校的招生办公室以获得最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 관련된 정보를 제공하지만, 수능 성적의 중요성에 대한 언급이 원본 텍스트와 다소 상충합니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 수능 성적이 크게 중요하지 않다고 언급하여 혼란을 초래합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 수능 성적의 중요성에 대한 설명이 일관되지 않습니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 강조하는 반면, 생성된 응답은 수능 성적이 중요하지 않다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 직접적인 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 수능 성적의 중요성에 대한 설명이 원본 텍스트와 다르게 제시되어 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 수능 성적의 중요성에 대한 설명이 원본 텍스트와 상충하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 수능 성적의 중요성에 대한 언급이 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.7205855699709021</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과의 경우, 전형요소 반영비율을 살펴보면 다음과 같습니다:
+- **학생부교과**: 70%
+- **면접**: 30%
+성적 부분에 대해:
+- **수능 성적**: 학생부교과 반영 비율이 높기 때문에 수능 성적은 크게 중요하지 않아 보입니다.
+- **학생부 교과성적**: 주요 평가 요소 중 하나로, 70%의 가중치를 받습니다.
+3.33 정도의 성적을 가지고 있다면:
+- **진로선택과목 성적반영**: A: 1등급 B: 3등급 C:5등급
+- **진로선택과목 반영과목 수**: 전 모집단위(한의예과 제외)에서 최대 2과목 이내 반영 가능
+이러한 조건을 충족하면 바이오응용공학과 최초 등록자로 지원할 가능성은 있습니다. 하지만 성적 외에도 면접 결과, 진로선택과목 성적 등이 중요하기 때문에 전반적인 경쟁력을 고려해야 합니다.
+결론적으로:
+- **성적**: 3.33 정도는 꾸준히 반영될 수 있는 범위입니다.
+- **진로선택과목 성적**: A: 1등급 B: 3등급 C:5등급
+- **면접 결과**: 면접 비율이 30%이므로 좋은 결과가 필요합니다.
+따라서, 3.33 정도의 성적을 가지고 있다면 바이오응용공학과 최초 등록자로 지원할 가능성이 있습니다. 하지만 경쟁력을 고려해야 하기 때문에 면접 준비와 진로선택과목 성적 등을 잘 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 제공하고 있으며, 4.4의 성적이 평균보다 낮다는 점을 언급하고 있습니다. 그러나 수능 성적의 구체적인 수치에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 일부 정보는 추정에 기반하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 방사선학과의 모집 요강을 설명하고 있지만, 원본 텍스트에서 제공된 평균 등급과는 다소 차이가 있는 세부 사항을 포함하고 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 지원 가능성에 대한 조언을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문단이 주제를 잘 연결하고 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 제공하고 있으며, 4.4의 성적이 평균보다 낮다는 점을 정확하게 반영하고 있습니다. 그러나 수능 성적에 대한 구체적인 수치는 원본 텍스트에 명시되어 있지 않으므로, 일부 정보는 추정에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 긍정적인 평가를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 방사선학과에 대한 적절한 정보를 제공합니다. 다만, 일부 세부 사항은 원본 텍스트와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.6007643921348566</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과의 모집요강을 참고하여 답변 드리겠습니다.
+방사선학과는 주로 수능 성적을 기준으로 모집하며, 수능 반영 영역은 다음과 같습니다:
+- 국어(화법과작문 또는 언어와매체) 25%
+- 수학(확률과통계 또는 미적분 또는 기하) 25%
+- 영어 25%
+- 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+성적이 4.4정도라면, 수능 성적은 다음과 같이 평균적으로 보입니다:
+- 국어: 100점대 중반
+- 수학: 미적분/기하 또는 확률통계 90점대 후반
+- 영어: 3등급 이상 (83점 이상)
+- 탐구: 2개 과목 모두 4등급 이상
+이러한 성적을 가지고 방사선학과에 지원한다면, 경쟁률이 매우 높아 보입니다. 이 학과는 모집인원이 적고 지원자가 많기 때문에 낮은 등급으로 합격하기 어렵습니다.
+하지만, 다음과 같은 요소들이 있다면 기회가 있을 수 있습니다:
+1. 탐구 과목에서 높은 점수를 받았다면 이점 활용 가능
+2. 특별한 경력이나 활동이 있다면 서류평가에서 유리할 수 있음
+3. 면접 성적이 좋다면 합격 가능성 증가
+결론적으로, 4.4정도의 성적로 방사선학과에 정시로 지원하는 것은 매우 어려울 것으로 보입니다. 다른 전형이나 대안을 고려해보는 것이 좋겠습니다.
+추천되는 방법:
+1. 학생부종합전형 등 다른 전형을 시도해볼 것
+2. 수능 성적 향상을 위해 추가 공부를 해볼 것
+3. 다른 의료 관련 학과나 대학을 고려해보는 것도 좋습니다
+더 자세한 조언이 필요하시다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 방사선학과의 평균 GPA가 3.0 이상이라고 언급하고 있지만, 원본 텍스트에서는 방사선학과의 영어 등급 평균이 2.8이고, 수능 4개 영역 등급 평균이 3.82라고 명시되어 있습니다. 따라서, 2.66이라는 점수가 평균보다 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 2.66이 평균보다 높다고 하지만, 생성된 응답에서는 2.66이 상대적으로 낮은 점수라고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 방사선학과의 GPA와 입학 경쟁률에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 구체적인 데이터에 대한 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 특히 GPA에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본의 의미와 다소 다르게 해석되고 있으며, 특히 GPA에 대한 해석이 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5722951316157624</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 정시 모집에서 2.66이라는 GPA는 상대적으로 낮은 점수입니다.
+방사선학과는 보통 과학적 사고력과 전문 지식이 요구되는 학과로, 입학 경쟁률이 높습니다. 이 학과의 평균 GPA는 대체로 3.0 이상을 기대합니다. 따라서 2.66은 약간 낮은 점수로, 다음과 같은 위험성을 고려해야 합니다:
+1. **경쟁률**: 방사선학과의 경쟁률이 높기 때문에, 이 점수로는 합격 확률이 낮을 수 있습니다.
+2. **전형별 차이**: 다른 전형(학생부종합, 평생학습자 등)에서는 2.66 이상의 GPA가 더 유리할 수 있습니다.
+3. **추천서 및 면접**: GPA 외에도 추천서와 면접 성적이 중요하므로, 이 부분에서 좋은 점수를 얻어야 합니다.
+4. **기타 자격**: 지원자격 요건을 충족시키는지 확인해야 합니다 (예: 3년 이상의 재직 경력 등).
+5. **대학별 차이**: 다른 대학에서는 같은 GPA라도 합격 가능성은 다를 수 있으므로, 여러 대학을 고려하는 것이 좋습니다.
+결론적으로, 2.66이라는 GPA로는 방사선학과에 정시로 지원하기가 어렵다고 볼 수 있습니다. 다른 전형이나 대학을 추가로 검토해보는 것이 현명할 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 수능 등급과 경쟁률에 대한 정보를 포함하고 있으며, 3.66의 성적이 평균보다 높은 점수를 반영하고 있습니다. 그러나 경쟁률과 모집인원에 대한 정보는 명확히 출처에서 제공된 내용과 일치하지 않으며, 다소 과장된 해석이 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률에 대한 해석이 다소 상충하는 부분이 있습니다. 원본에서는 경쟁률이 낮아졌다고 언급했으나, 생성된 응답에서는 높은 경쟁률을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경찰행정학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 경쟁률과 모집인원에 대한 정보를 제공하지만, 이 정보가 원본 텍스트와 완전히 일치하지 않기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 해석에서 다소 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.595357559542655</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 영어 등급은 꽤 좋은 점수입니다. 하지만 경쟁률과 모집인원을 고려해야 합니다.
+경찰행정학과의 경우, 2024년도 최초합격자 표에 따르면:
+- 인문사회과학대학 경찰행정학과는 13명이 지원하여 4.14의 경쟁률을 보였습니다.
+- 모집인원은 7명입니다.
+이러한 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **경쟁률**: 4.14대 1로 높은 경쟁률을 보였으므로, 3.66의 등급만으로는 합격하기 어렵다고 볼 수 있습니다.
+2. **모집인원**: 7명 중에서 선발하므로, 상위권 지원자들 사이에서 경쟁이 치열할 것입니다.
+3. **기타 요소**: 면접 성적, 출결 등록, 학교생활기록부 등의 평가도 중요한 역할을 합니다.
+4. **지원 자격**: 농어촌 학생으로서 지원 자격이 있으므로 이는 긍정적인 점입니다.
+5. **전형 유형**: 경쟁률과 모집인원을 고려하면, 실기/실적 위주나 학생부 종합 등 다른 전형에서 더 높은 확률로 합격할 수 있습니다.
+결론적으로 3.66의 영어 등급만으로는 경찰행정학과 농어촌 전형에서 합격하기 어렵다고 판단됩니다. 하지만, 지원 자격이 있으므로 다른 전형을 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번의 위치에 대한 합격 가능성을 언급하고 있지만, 원문에서 제공된 특정 학과 목록에 대한 언급이 없고, 일반적인 조언을 제공하고 있습니다. 따라서 일부 사실은 반영되었으나, 원문에서의 구체적인 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 예비 25번의 위치에 대한 합격 가능성을 다루고 있지만, 원문에서 제시된 특정 학과 목록과의 일관성이 부족합니다. 원문은 특정 학과에 대한 정보를 제공하는 반면, 생성된 응답은 일반적인 조언을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원문에서 제공된 특정 학과 목록에 대한 언급이 없기 때문에 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제공된 구체적인 학과 목록과의 일치성이 부족하여 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 유용한 정보를 제공하지만, 원문과의 일관성 및 정확성에서 일부 부족함이 있어 점수가 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 맥락에 적합한 의미를 전달하고 있지만, 원문에서 제공된 구체적인 정보가 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4881407018542484</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25위라는 위치는 상당히 높은 순위입니다. 하지만 합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집인원과 지원자 수: 현재 모집인원이 얼마나 되며, 예비후보로 선정된 인원 수가 어느 정도인지 확인해야 합니다.
+2. 경쟁률: 해당 모집단위의 전체 경쟁률을 파악해 보세요. 경쟁률이 높다면 합격 가능성은 낮아질 것입니다.
+3. 성적과 전형요소: 지원자의 성적이 얼마나 뛰어나며, 전형요소 반영 비율에 따라 어떤 부분이 더 유리한지 확인해야 합니다.
+4. 모집단위 특성: 해당 학과의 특성과 지원자들의 경쟁력을 고려해 보세요.
+현재 정보만으로는 정확한 확률을 예측하기 어렵습니다. 하지만 예비 25번이라는 위치에서 보면, 합격 가능성은 상대적으로 낮지만 아직 최종 결과가 나오지 않았기 때문에 기회는 남아 있습니다. 
+추천되는 조치:
+- 모집인원과 지원자 수를 확인해 보세요.
+- 성적을 다시 점검하고, 전형요소 반영 비율을 확인하세요.
+- 학교 관계자에게 상세한 정보를 요청해 보세요.
+결국 최종 결과는 2월 중순까지 발표되는 최종합격자 명단에서 결정될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있지만, 해당 학부는 존재하지 않으며, 이는 원본 텍스트와 상충합니다. 또한, 2023년도 성적에 대한 정보도 잘못된 수치를 제시하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답은 해당 학부에 대한 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 입학 성적에 대한 정보를 제공하고 있으나, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 이해를 필요로 할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 요소를 고려하여 합격 가능 점수를 예측하려고 하지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있으며, 특히 성적에 대한 수치가 잘못된 것으로 보입니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.6986073350020988</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 법경찰행정학부의 정시 모집에 대해 정확한 합격 가능 점수를 예측하기는 어렵습니다. 하지만 일반적으로 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **최근 몇 년간의 입학성적 분석**:
+   - 2023년도 법경찰행정학부의 최종 합격자들의 성적을 참고할 수 있습니다.
+   - 예를 들어, 2023년도에 평균 국어 + 수학 + 탐구(2개) 표준 변환 점수 합이 415점 정도였다면, 이 수치를 기준으로 잡는 것이 좋습니다.
+2. **경쟁률**:
+   - 법경찰행정학부의 경쟁률을 고려해야 합니다.
+   - 예를 들어, 2023년도에 모집인원이 15명이고 지원자가 40명이라면 경쟁률은 약 2.67:1입니다.
+3. **성적 분포**:
+   - 성적이 높게 분포되어 있다면, 평균보다 조금 더 높은 점수를 받는 것이 안정적으로 합격할 수 있습니다.
+   - 반대로 성적이 낮게 분포되어 있다면, 평균과 비슷한 점수라도 충분히 합격 가능합니다.
+4. **추천의견**:
+   - 2023년도 최종합격자들의 성적을 기준으로 415점 이상을 목표로 잡는 것이 안정적인 접근법일 수 있습니다.
+   - 하지만 이는 예측이며, 실제 입학성적이 변동될 수 있으므로, 조금 더 높은 점수를 노려보는 것이 좋습니다.
+따라서, 법경찰행정학부에 정시로 들어갈려면 **420점 이상**을 목표로 잡는 것이 안정적인 접근법일 수 있습니다. 하지만 이는 예측이며, 실제 입학성적은 변동될 수 있으므로, 최신 정보와 경쟁률 등을 고려하여 결정하는 것이 좋습니다.
+추가적으로, 동의대학교의 공식 홈페이지나 입학처에 문의하거나, 최근 몇 년간의 합격자 성적을 확인해보는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 2024년 동의대학교 보육가정상담학과의 정시 모집에 지원 자격이 없다고 주장하고 있지만, 원문에서는 아동학과의 평균 등급과 관련된 정보를 제공하고 있으며, 정시 등급이 5.33인 경우 합격 가능성이 높다고 언급하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 정시 등급이 5.33일 경우 합격 가능성이 높다고 했으나, 생성된 응답에서는 정시 모집에 지원할 수 없다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 원문에서 언급된 아동학과와 관련된 정보와는 다소 거리가 있습니다. 따라서 관련성은 있지만, 주제와의 직접적인 연관성은 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 연결이 약해 전체적인 일관성은 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원문에서 제공하는 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 원문에서 제시된 합격 가능성과 관련된 정보가 무시되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원문과의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 맥락이 다르기 때문에 의미의 일관성이 부족합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 관계가 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.4370380149887844</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 경우, 정시 모집에서는 지원 자격이 없습니다.
+다음은 해당 단과대학 및 계열의 모집 정보입니다:
+- **단과대학**: 인문사회과학대학
+- **계열**: 인문사회
+- **모집 단위**: 보육가정상담학과
+표에서 보는 바와 같이, 이 학과는 다음과 같은 전형으로 모집됩니다:
+1. 나군 학생부교과(농어촌학생전형)
+2. 나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형)
+따라서 정시로 지원하는 것은 불가능합니다.
+정시 모집이 아닌 경우, 아래의 전형을 통해 지원하실 수 있습니다:
+1. **나군 학생부교과(농어촌학생전형)**:
+   - 지원 자격: 농어촌 지역 출신자
+   - 제출서류: 가족관계증명서, 주민등록초본 등
+2. **나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형)**:
+   - 지원 자격: 재직 경력 3년 이상 등의 조건
+   - 전형요소 반영비율: 서류와 면접 비중
+정확한 합격 가능성은 해당 전형의 기준과 지원자의 개인 정보에 따라 달라질 수 있으므로, 동의대학교 입학처 웹사이트나 상담을 통해 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 충원 합격자 발표와 관련된 정보의 일부를 포함하고 있지만, 동점자 처리 기준과 서류 평가에 대한 내용은 원본 텍스트에 명시되어 있지 않은 정보입니다. 따라서 일부 사실과 일치하지만, 원본 텍스트의 핵심 정보를 완전히 반영하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 동점자 처리 기준과 같은 추가적인 정보를 포함하고 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주제와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 12번에 대한 합격 가능성에 대한 정보를 제공하고 있지만, 동점자 처리 기준과 같은 추가적인 정보는 원본 텍스트의 주제와는 약간의 거리가 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 동점자 처리 기준과 같은 추가적인 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성에서 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 원본 텍스트와의 일치성 및 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락과 의미에 적절하게 부합하지만, 추가적인 정보가 포함되어 있어 다소 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.5098089543762053</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>3차에서 예비 12번을 받은 것은 좋은 결과입니다. 그러나 합격 여부는 여러 요인에 따라 결정되므로 확실한 답변을 드리기는 어렵습니다. 다음은 고려해볼 수 있는 몇 가지 포인트입니다:
+1. 동점자 처리 기준:
+   - 1위: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+   - 2위: 영어교과 전 과목 등급 평균 상위자
+   - 3위: 국어교과 전 과목 등급 평균 상위자
+2. 동점자 처리 기준에 따라 순위가 결정될 수 있습니다.
+3. 서류평가와 면접 성적도 중요한 요소입니다.
+4. 최종 등록 후 추가 제출서류의 정확성과 완비 여부가 합격 가능성에 영향을 줄 수 있습니다.
+5. 동점자 처리 시 국어, 수학, 영어 등의 과목 등급 평균이 중요하게 작용할 수 있습니다.
+6. 3차에서 예비로 선정된 것은 좋은 신호지만, 최종 합격까지는 여러 단계를 거쳐야 합니다.
+결론적으로, 예비 12번을 받은 상태에서는 아직 확실한 합격은 아니지만, 가능성은 존재합니다. 동점자 처리 기준과 추가 서류 제출 등에 신경 쓰고, 최선의 준비를 하는 것이 중요할 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.75라는 점수가 높은 점수라고 언급하지만, 원본 텍스트에서는 유아교육학과의 평균 점수가 4.18로, 4.75로는 지원하기 어려울 것이라고 명시하고 있습니다. 따라서, 사실관계에서 큰 차이가 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 4.75 점수로 유아교육과에 합격할 가능성이 높다고 주장하지만, 원본 텍스트에서는 이 점수로는 지원하기 어렵다고 명시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육과에 대한 정보와 지원 전략을 제공하고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮으며, 사실관계와 일관성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 원본 텍스트와의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6828381490380737</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대학입학에서는 수능 점수가 매우 중요한 요소로 작용하므로, 이 점수만으로 유아교육과에 합격할 확률이 상대적으로 높습니다.
+유아교육과의 경우, 일반적으로 다음과 같은 특징을 가지고 있습니다:
+1. **전형 다양성**: 대부분의 대학에서 유아교육과는 다양한 전형 방법을 사용합니다 (학생부종합전형, 수능위주 등).
+2. **수능 점수**: 많은 학생들이 높은 수능 점수를 가지고 지원하므로, 4.75라는 점수는 상대적으로 높습니다.
+3. **학생부 및 기타 요소**: 일부 대학에서는 학생부와 면접 등 다른 평가 요소도 중요하게 고려합니다.
+따라서, 4.75의 수능 점수로 유아교육과에 지원한다면 다음과 같은 전략을 고려해볼 수 있습니다:
+1. **학생부 준비**: 강점을 잘 보여줄 수 있는 학생부를 작성하십시오.
+2. **면접 준비**: 면접에서도 자신의 열정과 적합성을 잘 표현할 수 있도록 준비하십시오.
+3. **추천서 및 추천인**: 가능하다면 선생님이나 다른 관련 전문가의 추천서를 받으세요.
+결론적으로, 4.75라는 높은 수능 점수로 유아교육과에 지원한다면 합격 가능성은 상당히 높습니다. 그러나 최종 결정은 해당 대학의 모집요강 및 전형 방식에 따라 달라질 수 있으므로, 각 대학의 공지사항을 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하며, 수능 성적 4.16이 높은 수준이라는 점을 언급하고 있습니다. 그러나 "평균이 300점대 초반에서 400점대 중반까지"라는 부분은 사실과 다를 수 있으며, 수능 성적의 평균에 대한 구체적인 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가적인 세부사항을 포함하고 있어 일관성이 떨어질 수 있습니다. 예를 들어, 경쟁률에 대한 언급은 원본 텍스트에 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 있어 원본 텍스트와의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확한 정보를 제공하지만, 수능 성적의 평균에 대한 언급이 다소 모호하여 정확성에 영향을 미칠 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 추가 정보가 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5886641970710573</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(현재는 아동학과로 분류됨)에 대해 다음과 같이 답변 드리겠습니다:
+1. **전형 유형**: 일반학생전형으로 추합까지 생각한다면, 학생부교과와 수능을 모두 고려하게 됩니다.
+2. **수능 성적**:
+   - 4.16의 표준 변환 점수가 주어졌습니다.
+   - 이 점수는 상당히 높은 수준입니다 (평균이 300점대 초반에서 400점대 중반까지).
+3. **학생부교과 성적**:
+   - 학생부교과의 반영 방식은 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 등 석차등급을 평균한 점수입니다.
+   - 4.16이라는 수능 성적은 좋은 수준이므로, 학생부교과에서도 높은 점수가 나올 가능성이 큽니다.
+4. **경쟁률**:
+   - 보육가정상담학과(아동학과)의 경쟁률을 확인해야 합니다.
+   - 2023년도나 이전의 경쟁률을 참조하면, 현재의 성적으로는 상당히 높은 가능성 있는 합격 가능성이 있습니다.
+5. **추합 점수**:
+   - 추합 점수는 수능과 학생부교과를 합산한 점수입니다.
+   - 4.16의 수능 성적에 좋은 학생부교과 점수가 더해지면, 전체적으로 높은 추합 점수가 나올 가능성이 큽니다.
+6. **결론**:
+   - 현재 주신 정보만으로는 정확한 확률을 예측하기 어렵지만, 4.16의 수능 성적과 좋은 학생부교과 성적을 갖추고 있다면, 보육가정상담학과(아동학과)에 합격할 가능성이 매우 높습니다.
+추합 점수를 정확히 계산하기 위해서는:
+- 현재의 학생부교과 성적을 확인해야 합니다.
+- 2024년도의 최종 모집인원과 지원 인원을 확인해야 합니다.
+따라서, 주신 정보만으로는 확실한 답변을 드릴 수 없지만, 좋은 가능성은 있습니다. 추가적인 자료를 수집하여 정확한 판단을 내리시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 나군 학생부종합전형에 대한 구체적인 등급 기준은 원문에 명시되어 있지 않으므로, 이 부분은 추가적인 정보로 간주할 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되며, 정시 지원이 불가능하다는 점을 유지하고 있습니다. 다만, 학생부종합전형에 대한 추가 정보가 포함되어 있어 약간의 일관성 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공합니다. 정시 지원 불가능성에 대한 설명과 함께 학생부종합전형에 대한 정보도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 정보의 양이 많아 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하며, 추가된 정보도 일반적으로 정확합니다. 그러나 특정 등급 기준은 공식적인 출처에서 확인이 필요할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 다만, 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 추가된 정보도 적절합니다. 그러나 원문에 없는 세부 사항이 포함되어 있어 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 정보가 많아 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4822956436250034</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 소프트웨어융합학과는 나군 학생부종합전형으로만 모집됩니다. 정시로 지원하는 것은 불가능합니다.
+하지만, 나군 학생부종합전형에서는 평균적으로 다음과 같은 등급을 받아야 합니다:
+1. 국어: 4등급 이상
+2. 수학: 3등급 이상 (특히 미적분이나 통계 관련 과목은 중요)
+3. 영어: 5등급 이상
+4. 사회/과학: 4등급 이상
+평균적으로는 다음과 같은 점수를 받는 것이 목표일 수 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 약 380-400점 정도
+- 영어 등급: 5등급 이상
+정확한 평균은 모집단위와 지원자의 성적, 경쟁률 등을 고려해야 하지만 위와 같은 기준을 유지하면서 지원하는 것이 좋습니다. 실제로는 학교별로 약간의 차이가 있을 수 있으니 해당 학과의 최종등록자나 최초합격자를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 면접 점수와 세부 특기사항의 중요성을 강조하고 있으며, 서류 준비에 대한 구체적인 내용도 포함하고 있습니다. 그러나 원본 텍스트에서 언급된 "학생부 교과성적"에 대한 언급이 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되게 면접과 서류 평가의 중요성을 설명하고 있습니다. 다만, 원본 텍스트의 특정 세부 사항이 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원본 텍스트의 특정 세부 사항이 누락되어 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 세부 사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.4803596744112628</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>1. **면접 점수와 세특 내용의 중요성**:
+   - 일반적으로 면접 점수와 서류 평가(세부 특기사항) 모두 중요한 역할을 합니다.
+   - 면접에서는 지원자의 입학 후 적합성을 판단하기 위해 학업역량, 전공적합성 등을 평가합니다.
+   - 세특 내용은 지원자가 실제 활동과 경험을 통해 얻은 실질적인 능력을 보여주므로 중요합니다.
+2. **서류 준비**:
+   - **면접 질문 공통문항**: 지원 동기와 학업 계획, 고교 생활 중 겪은 어려움과 해결 방안 등에 대해 준비해야 합니다.
+   - **학업역량 관련 서류**: 고교 생활 중 학업 문제에 대한 원인 탐색과 해결 방안을 작성합니다. 이 때 실제 경험과 노력이 반영된 내용을 기재하는 것이 중요합니다.
+   - **전공적합성 관련 서류**: 지원 전공(계열)에 대한 관심과 이해, 진로 탐색 활동 등을 기재합니다.
+3. **추천 사항**:
+   - 실제 경험과 노력이 반영된 세부 내용을 기재해야 합니다.
+   - 학교생활기록부와 관련 서류를 체크하여 일치하는 내용을 작성합니다.
+   - 면접 질문 공통문항에 대한 답변도 준비하며, 실제 활동과 경험을 바탕으로 답변하도록 합니다.
+따라서, 세특 내용은 면접 점수와 함께 중요한 역할을 하므로 충분히 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 2024학년도 수능 최초합격자의 평균 성적에 대한 정보와 관련이 없으며, 잘못된 정보(예: 경제 경쟁력 비율, 평균 점수 등)를 포함하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없으며, 다른 정보를 제공하고 있습니다. 원본 텍스트의 내용과 상충하는 부분이 많아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 없는 정보가 포함되어 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보가 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.5272880576018172</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. **2024年东义大学软件工程学部（Software Engineering Department）的招生计划**：包括该专业的录取人数和报名人数。
+2. **考生的成绩情况**：特别是国语、数学、英语等科目的成绩以及总分。
+3. **往年的录取分数线或标准**：虽然没有直接给出，但可以通过分析其他类似专业的情况来推测。
+根据提供的信息：
+- 东义大学软件工程学部（Software Engineering Department）2024年计划招生人数为30人。
+- 报名人数为146人。
+- 经济竞争力比率为4.87。
+- 国语 + 数学 + 探究(2个) (含加分) 标准转换分数总和的平均值为330.11，标准差为9.08。
+- 英语等级的平均值为3.30，标准差为0.82。
+考生的成绩是4.08。这个成绩在英语等级上相对较高（最高为5），但在其他科目上的表现可能需要进一步确认。
+### 分析：
+1. **竞争情况**：经济竞争力比率为4.87，说明该专业的竞争非常激烈。
+2. **平均分和标准差**：国语 + 数学 + 探究(2个) (含加分) 标准转换分数总和的平均值为330.11，考生的成绩需要接近或超过这个平均水平才能有希望被录取。
+### 结论：
+- 考生的英语等级是4.08，在所有报名者中处于较高水平。
+- 但是，国语 + 数学 + 探究(2个) (含加分) 标准转换分数总和需要达到330左右才能有希望被录取。
+因此，虽然考生的英语成绩很好，但还需要在其他科目上取得较高的分数。具体能否被录取还需参考具体的分数线或标准，建议查看东义大学官方网站上的最新招生信息或直接咨询学校招生办公室以获取更准确的信息。
+如果需要进一步确认，请访问 [东义大学官网](https://ipsi.deu.ac.kr/main.do) 获取最新的招生政策和详细信息。</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과가 정시모집군에 속하지 않는다고 주장하고 있지만, 원본 텍스트에서는 정시 모집에 대한 구체적인 합격 등급 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서, 생성된 응답의 주장은 원본 텍스트의 정보와 일치하지 않으며, 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일관성을 유지하고 있지만, 정시모집군에 속하지 않는다는 주장은 원본 텍스트의 내용과 모순됩니다. 원본 텍스트는 정시 모집에 대한 구체적인 정보를 제공하지 않기 때문에, 생성된 응답의 주장은 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 소프트웨어융합학과의 정시모집에 대한 정보를 다루고 있습니다. 그러나 원본 텍스트의 정보와는 다소 차이가 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과가 정시모집군에 속하지 않는다고 주장하지만, 원본 텍스트에서는 그러한 정보가 제공되지 않습니다. 따라서 정확성 점수는 낮아질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6476016103725184</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 전형의 경우, "소프트웨어융합학과"는 정시모집군에 속하지 않습니다. 주어진 표에서 "전형명 및 지원자격" 항목을 보면, 소프트웨어융합학과는 정시모집 군으로 분류되지 않았습니다.
+따라서, 현재 제공된 정보로는 소프트웨어융합학과에 대해 정시 평균 5등급으로 지원할 수 있는지에 대한 답변을 드릴 수 없습니다. 
+만약 이 학과가 정시모집군에 포함되었다면, 해당 학과의 전형요소 반영비율이나 수능최저기준 등을 확인해야 합니다. 하지만 현재 정보로는 소프트웨어융합학과는 정시모집 대상이 아닙니다.
+추가적인 정보나 변경 사항이 있는지 확인하시거나, 공식 홈페이지를 참조해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.28이라는 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높다고 언급하고 있으며, 합격 가능성이 높다고 판단하고 있습니다. 그러나 생성된 응답은 4.28 성적이 신소재공학과에 진학하기 어렵다고 주장하고 있어 사실관계에 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 합격 가능성이 높다고 말하는 반면, 생성된 응답은 반대의 주장을 하고 있습니다. 이로 인해 두 텍스트 간의 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 결론과는 상반된 내용을 포함하고 있습니다. 그러나 지원자의 성적과 관련된 정보는 여전히 유용하므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 상충으로 인해 전체적인 일관성이 떨어집니다. 주장이 서로 모순되기 때문에 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다. 원본의 정보에 기반한 판단이 아닌, 잘못된 결론을 도출하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 결론이 상반되어 의미적으로 적절하지 않습니다. 원본의 맥락을 잘 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본과의 상충으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5911763594435787</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 진학하기는 어렵다고 볼 수 있습니다.
+이유는 다음과 같습니다:
+1. 신소재공학과 모집인원 및 지원자 수:
+   - 신소재공학과는 56명을 모집하며, 지원자는 81명입니다.
+   - 경쟁률은 약 1.45:1로 높지 않지만, 입학정원보다 많은 지원자가 있습니다.
+2. 최종등록자 성적 분포:
+   - 최종 등록자의 평균 국어+수학+탐구(2개) 표준변환점수 합은 286.97입니다.
+   - 이는 4.28보다 약 3.0점 낮습니다.
+3. 동의대학교의 입학정원:
+   - 신소재공학과는 56명을 모집합니다.
+   - 지원자는 81명으로, 경쟁률은 약 1.45:1입니다.
+4. 성적 편차:
+   - 최종 등록자의 표준편차는 15.35로 높습니다.
+   - 이는 성적이 상대적으로 불안정하다는 것을 의미합니다.
+결론적으로, 4.28이라는 성적을 가지고 동의대학교 신소재공학과에 진학하기는 어렵다고 볼 수 있습니다. 더 높은 성적이나 다른 학과를 고려하는 것이 좋을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요하지 않다는 사실을 정확하게 반영하고 있습니다. 그러나 "일부 모집단위나 전형에서 자기소개서를 제출하도록 하는 경우도 있으므로"라는 부분은 다소 모호하게 느껴질 수 있으며, 이는 원문에서 명확히 언급되지 않은 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 자기소개서 제출이 필요하지 않다는 점과 관련하여 추가적인 정보를 제공하면서 일관성이 떨어질 수 있습니다. 원문은 자기소개서가 필요 없다고 단정적으로 말하고 있으나, 생성된 응답은 조건부로 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 자기소개서의 필요성에 대한 정보를 명확히 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가적인 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있으나, 일부 추가 정보가 원문과의 일관성을 약간 해칠 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 모호한 표현이 있어 약간의 감점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, 추가적인 조건부 설명이 원문의 명확한 의미를 약간 흐릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.7067426747278613</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 수능 일반학생전형은 주로 수능 점수와 교과 성적을 기반으로 학생들을 선발합니다.
+하지만, 일부 모집단위나 전형에서 자기소개서를 제출하도록 하는 경우도 있으므로, 정확한 정보를 얻기 위해서는 해당 해의 입학전형요강이나 동의대학교 입학처 웹사이트를 확인하는 것이 좋습니다. 특히, 학생부종합전형과 같은 전형에서는 자기소개서가 요구될 수 있습니다.
+현재 제공된 정보로는 수능 일반학생전형에서 자기소개서 제출은 필요하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 입학 가능성을 평가하기 위해 고려해야 할 여러 요인을 제시하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 언급된 특정 학과의 평균 등급과 표준 편차에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 수능 점수와 관련된 다양한 요소를 고려해야 한다는 점에서 일치합니다. 다만, 원본 텍스트의 특정 수치(예: 평균 등급)와는 직접적으로 연결되지 않기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊습니다. 수능 점수와 입학 가능성에 대한 질문에 대해 적절한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 입학 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 다양한 요소를 정확하게 설명하고 있지만, 원본 텍스트의 특정 수치나 데이터에 대한 언급이 부족하여 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.625841805441361</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확정적으로 입학 가능 여부를 판단하기 어렵습니다. 다음과 같은 요인들을 고려해야 합니다:
+1. 모집단위와 전형 유형:
+   - 어떤 단과대학과 모집단위를 지원했는지
+   - 수능 위주, 실기/실적 위주 등 어떤 전형을 사용하는지
+2. 최저 합격 점수:
+   - 해당 모집단위의 최저 합격 점수가 얼마인지 확인해야 합니다.
+3. 경쟁률:
+   - 지원 인원과 모집인원 사이의 차이가 얼마나 되는지
+4. 추가모집 여부:
+   - 2차, 3차 등 추가모집이 진행되는지 확인해야 합니다.
+5. 학생들의 성적 분포:
+   - 전체 지원자의 점수 분포를 파악하여 자신의 위치를 판단해야 합니다.
+6. 가산점:
+   - 특정 전형에서는 수능 외에 다른 요소가 반영될 수 있으므로 이를 고려해야 합니다.
+따라서, 정확한 답변을 위해서는 다음과 같은 정보가 필요합니다:
+- 지원한 단과대학 및 모집단위
+- 사용된 전형 유형 (수능 위주, 실기/실적 위주 등)
+- 해당 모집단위의 최저 합격 점수
+- 추가모집 여부와 일정
+이런 정보를 바탕으로 전문가에게 상담하거나, 동의대학교 입학 홈페이지에서 공지사항을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 전형요소 반영비율, 모집인원, 지원인원, 경쟁률, 교과 성적 반영방법 등 다양한 정보를 제공하고 있으며, 이는 신소재학과의 최종등록자 데이터와 관련된 내용과 일치합니다. 그러나 원본 텍스트의 평균 등급 정보와 직접적으로 연결되지 않으므로 완전한 일치는 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 전형에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급에 대한 정보와는 일관성이 떨어집니다. 즉, 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 신소재공학과의 입학 전형에 대한 정보를 제공하며, 이는 질문의 주제와 매우 관련이 깊습니다. 따라서 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 전형에 대한 정확한 정보를 제공하고 있으며, 이는 신뢰할 수 있는 데이터에 기반하고 있습니다. 그러나 원본 텍스트의 평균 등급 정보와의 연결이 부족하여 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 다만, 원본 텍스트의 특정 세부사항과의 연결이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 다소 복잡하게 제시되어 있어 완전한 이해를 위해 추가적인 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6146423612207539</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)는 전형요소 반영비율을 살펴보면 실기/실적 위주전형으로 분류됩니다. 
+- **모집인원**: 56명 (신소재공학과 + 고분자나노공학과)
+- **지원인원**: 81명
+- **경쟁률**: 1.45
+**교과 성적 반영방법**:
+전 모집단위(한의예과 제외) 12과목 중 석차등급 상위 12과목을 반영합니다.
+**전형요소 반영비율**:
+실기/실적 위주: 학생부교과 30% + 서류 70%
+따라서, 신소재공학과를 포함한 이 과정의 경쟁률이 1.45로 낮은 편이며, 실기/실적 위주의 전형으로서는 학생부교과 성적이 중요한 요인입니다.
+**추천 등급**:
+- **국어**: 3등급 이상
+- **수학(미적분)**: 4등급 이상 (신소재공학과의 경우)
+- **영어**: 4등급 이상
+- **과학**: 5등급 이상
+이러한 등급을 가지고 있다면, 합격 가능성이 높습니다. 하지만 최종 결정은 지원자의 전체 성적 및 서류 평가 결과에 따라 달라질 수 있으므로, 정확한 합격 기준을 알고 있는 경우를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 작년 신소재공학과의 평균 표준 변환 점수인 378.15점과 귀하의 점수인 447점을 비교하며, 합격 가능성에 대한 논의를 포함하고 있습니다. 그러나 응답에서 언급된 "1점 차이"와 같은 세부 사항은 원본 텍스트의 정보와 직접적으로 연결되지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일관성을 유지하려고 하지만, "1점 차이"와 같은 언급은 원본 텍스트의 맥락과 다소 상충할 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학과의 합격 가능성에 대한 질문에 대한 적절한 정보를 제공합니다. 따라서 매우 높은 관련성을 가집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있어 완벽한 점수는 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, "1점 차이"와 같은 세부 사항이 원본 텍스트의 정보와 완전히 일치하지 않기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 세부 사항에서 약간의 부정확성이 있어 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부 사항에서 약간의 의미 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 완벽한 이해 가능성 점수는 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.5525984081467601</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수와 최종 등급 간의 변동 가능성에 대해 고려해보겠습니다.
+1. **표준점수 변동 가능성**:
+   - 표준점수는 수능 성적을 일정한 분포로 변환한 점수입니다.
+   - 작년과 올해의 표준점수 변동은 여러 요인에 의해 발생할 수 있습니다 (예: 전체 지원자 수, 학생들의 성적 분포 등).
+   - 그러나 동일한 모집단위에서 큰 폭의 변동은 드물기 때문에, 작년과 올해의 표준점수가 1점 차이 나는 것은 가능성이 있지만 매우 낮습니다.
+2. **최종 등급 변동 가능성**:
+   - 최종 등급은 수능 점수와 학생부 종합 평가 등을 종합적으로 고려하여 결정됩니다.
+   - 모집단위 내에서 지원자의 성적이 크게 분산되지 않는 한, 작년과 올해의 최종 등급이 큰 차이를 보이는 것은 어렵습니다.
+3. **변동 요인**:
+   - **성적 분포**: 작년과 올해 지원자의 수능 성적이 어떻게 분포했는지에 따라 변동이 있을 수 있습니다.
+   - **학생부 종합 평가**: 학생부 종합 평가 결과가 작년과 달라졌다면, 최종 등급에 영향을 줄 수 있습니다.
+4. **확률**:
+   - 표준점수가 1점 차이 나는 것은 매우 낮은 확률입니다.
+   - 최종 등급이 동일한 모집단위에서 크게 다르게 나올 가능성도 낮지만, 학생부 종합 평가 결과에 따라 변동이 있을 수 있습니다.
+결론적으로, 작년 신소재공학과의 표준점수가 447점보다 약간 높았다는 점은 매우 드문 상황입니다. 그러나 최종 등급이 동일한 모집단위에서 큰 차이를 보이는 것은 학생부 종합 평가 결과에 따라 가능하므로, 작년과 올해의 지원자의 성적 분포와 학생부 종합 평가 결과를 고려하여 판단하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 평균 성적에 대한 정보가 부족하고, 4.3등급에 대한 언급이 있지만, 원본 텍스트에서 제공된 4.1~4.2등급에 대한 분석이 부족하여 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 4.3등급에 대한 언급이 원본 텍스트의 4.1~4.2등급과의 비교와 일관성이 없다. 
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부에 대한 정보와 지원 가능성에 대한 논의가 포함되어 있어 관련성이 높지만, 원본 텍스트의 구체적인 데이터와 비교하는 데 부족함이 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요하다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있지만, 원본 텍스트와의 연결이 약간 부족하다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 4.3등급에 대한 언급이 원본 텍스트의 정보와 일치하지 않아 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 중간 정도의 품질을 보이며, 특히 사실성과 일관성에서 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과 완전히 일치하지는 않는다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하여 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5987686437337298</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3등급의 성적이면 신소재공학과(신소재공학과, 고분자나노공학과)의 경우 경쟁률이 매우 높습니다. 현재 표에서 볼 수 있듯이 신소재공학과는 다음과 같은 특징을 가지고 있습니다:
+1. **모집인원**: 56명
+2. **지원 인원**: 81명
+3. **경쟁률**: 약 1.45대1
+이는 경쟁률이 높아 보입니다.
+당신의 성적(4.1~4.2)은 이 경쟁률을 고려할 때, 상위권에 해당하지만 여전히 낮은 등급으로 보입니다. 신소재공학과는 과학 기반 학문이므로 수학과 과학 영역에서 높은 성적을 요구하기 때문에 4.1~4.2등급의 성적만으로는 경쟁력을 갖추기 어렵다고 볼 수 있습니다.
+하지만, 다음과 같은 요소들을 고려하면 기회가 있을 수 있습니다:
+- **면접 성적**: 면접에서 좋은 평점을 받으면 전체 점수가 높아질 수 있습니다.
+- **진로선택과목 성적**: 진로선택과목에서도 높은 등급을 받으면 도움이 될 수 있습니다.
+- **추천서나 특별한 경력**: 추천서나 특별한 경험, 활동 등을 통해 학교에서 선호하는 요소를 보여줄 수 있다면 이점이 있을 수 있습니다.
+결론적으로, 4.1~4.2등급의 성적만으로는 신소재공학과에 붙기 어렵다고 판단되지만, 면접이나 기타 평가 항목에서 좋은 점수를 받으면 기회가 있을 수 있습니다. 따라서, 전반적인 지원 자질을 고려하여 최선을 다해 준비하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하시면 더 정확한 조언을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 수치와 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 필요한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.8529282513309212</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형에 대한 최초합격자들의 성적을 보면 다음과 같습니다:
+- 모집인원: 15명
+- 지원인원: 24명
+- 경쟁률: 약 1.60대 1
+평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함): 평균 301.87, 표준편차 12.38
+- 영어 등급: 평균 4.13, 표준편차 0.71
+- 수능 4개 영역 등급: 평균 4.98, 표준편차 0.25
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 415.80, 표준편차 10.49
+이 성적을 참고하시면 인공지능학과에 지원하는 데 도움이 될 것입니다. 하지만 경쟁률이 낮은 만큼 실력만으로는 충분하지 않을 수 있으니, 자기소개서와 면접 준비도 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27의 성적이 충원 합격이 가능한 학과에 대한 정보를 제공하지 않고, 지원 가능성에 대한 일반적인 조언을 하고 있습니다. 이는 원본 텍스트의 구체적인 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분도 있지만, 구체적인 학과와 성적에 대한 정보가 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27의 성적에 대한 지원 가능성에 대한 정보를 제공하고 있으나, 원본 텍스트에서 제공하는 구체적인 학과 정보와는 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 정보의 구체성이 부족하여 다소 아쉬운 점이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27의 성적에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 학과와 성적에 대한 정보는 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 유용한 정보를 제공하지만, 원본 텍스트의 구체적인 내용과는 차이가 있어 다소 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 의미적으로 적절합니다. 그러나 구체적인 정보가 부족하여 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 정보의 구체성이 부족하여 완전한 이해를 돕지 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.7146624867028404</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 표준점수를 가지고 동의대학교의 정시 모집단위 중 어느 과에 지원할 수 있는지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. 지원하고자 하는 단과대학 및 계열:
+   - 인문사회과학대학, 상경대학, 공과대학, ICT융합공과대학 등
+2. 모집단위별로 수능 반영방법 확인:
+   - 각 모집단위의 수능 반영 영역과 비율을 확인해야 합니다.
+3. 최저학력기준 확인:
+   - 일부 단과대학 계열은 특정 학력 기준이 있을 수 있습니다.
+4. 지원 가능한 과목 범위:
+   - 5.27이라는 점수는 어느 과목에 해당하는지 확인해야 합니다.
+일반적으로 동의대학교의 정시 모집에서는 국어, 수학, 영어, 탐구영역 중 상위 3개 영역을 반영합니다. 5.27이라는 점수는 대체로 중간에서 높은 범위에 해당할 것입니다.
+예를 들어, 공과대학의 경우:
+- 국어 + 수학 + 영어 + 탐구(상위 2개) 표준점수 합산
+- 가산점이 있을 수도 있습니다 (수학 미적분/기하 응시자에게)
+따라서, 5.27이라는 점수가 상위 3개 영역 중에서 좋은 성적이었다면, 대부분의 공과대학 모집단위에서는 지원 가능할 것입니다.
+확정된 결과를 얻으려면:
+1. 해당 단과대학 및 계열의 정시 모집요강을 확인하세요.
+2. 수능 점수와 반영방법을 비교해보세요.
+3. 최저학력기준도 확인하세요.
+추가 정보를 제공해주신다면, 좀 더 구체적인 답변을 드릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 성적과 관련된 정보를 잘 반영하고 있으며, 4.2라는 점수가 높은 성적임을 강조하고 있습니다. 그러나 소프트웨어공학부의 평균 성적에 대한 구체적인 수치가 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 성적 기준과 관련된 정보를 일관되게 제공하고 있습니다. 다만, 일부 세부 사항에서 원본 텍스트와의 일관성이 약간 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 소프트웨어공학부에 지원할 가능성에 대한 평가를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 성적 기준에 대한 정보를 정확하게 반영하고 있지만, 원본 텍스트의 특정 세부 사항이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받고 있습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 약간의 모호함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장에서 더 명확한 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.6104535321420538</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 중등교육 기준에서의 등급으로 보이는데, 이 점수를 반영해 소프테이션공학부에 지원할 가능성을 평가해볼 수 있습니다.
+1. **성적 평균**: 4.2는 상당히 높은 성적입니다. 대체로 고등학교에서의 등급 중 상위권을 의미합니다.
+2. **소프트웨어공학부 모집요건**:
+   - 소프트웨어공학부는 주로 수학과 영어를 중요하게 평가합니다.
+   - 특히, 수학은 필수적으로 반영되며, 고등학교에서의 수학 성적이 중요합니다.
+3. **성적 반영방법**: 
+   - 동의대학교에서는 학생부교과 12과목 중 석차등급 상위 4과목을 반영합니다.
+   - 이 중 수학과 영어가 필수적으로 포함되어야 합니다.
+### 평가 요소
+- **수학 성적**: 소프트웨어공학부는 수학이 매우 중요하므로, 수학 등급이 높아야 합니다. 4.2의 점수가 고등학교 수학에서 좋은 성적을 의미한다면 이 부분은 충족할 가능성이 큽니다.
+- **영어 성적**: 영어도 중요한 요소입니다. 4.2의 점수는 영어에서도 높은 등급을 의미하므로, 이 부분도 충족할 수 있습니다.
+- **기타 과목**: 나머지 8과목 중에서 국어, 사회 등의 성적이 좋은 경우 더 유리합니다. 하지만 주요 과목인 수학과 영어가 높다면 큰 문제가 되지는 않을 것입니다.
+### 결론
+4.2의 점수는 상당히 좋은 성적입니다. 만약 수학과 영어 등급이 높다면, 소프트웨어공학부에 지원하는 것은 가능성이 있습니다. 하지만 최종 결정은 학교별로 다르므로, 동의대학교의 정확한 모집요강을 확인하고, 필요시 면접 준비를 포함해 지원 계획을 세우는 것이 좋습니다.
+추가적으로, 동의대학교에서는 실기/실적 위주 전형에서 실기 성적이 70%로 반영됩니다. 이 점수는 일반적으로 충족할 수 있는 범위에 속합니다. 따라서, 소프트웨어공학부에 지원하는 것은 가능성이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 질문에 대한 직접적인 답변을 제공하지 않고 추가 정보를 요청하는 내용으로 구성되어 있습니다. 원본 텍스트의 정보는 화학환경공학부의 평균 등급과 합격 가능성에 대한 내용을 포함하고 있지만, 생성된 응답은 이를 무시하고 다른 질문을 제기하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 특정 성적에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 그와 관련된 정보를 제공하지 않고 오히려 다른 질문을 던지고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 질문에 대한 직접적인 답변을 제공하지 않기 때문에 낮은 점수를 받았습니다. 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다. 질문에 대한 답변이 아닌 추가 정보를 요청하는 형식이기 때문입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 반영하지 않으며, 질문에 대한 정확한 정보를 제공하지 않습니다. 원본 텍스트의 내용과는 전혀 다른 방향으로 진행되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다. 원본 텍스트의 핵심 내용을 반영하지 않기 때문에 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 그러나 일부 관련된 질문을 포함하고 있어 낮은 점수를 받았습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어렵습니다. 질문에 대한 명확한 답변이 없기 때문에 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.549425466891703</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下信息：
+1. 您提供的成绩（3.92）是基于什么标准或转换方式计算的？
+2. 化学环境工程系的具体录取要求是什么？
+通常情况下，大学会将学生的高中学业成绩进行标准化处理，并设定一个最低分数线。如果您的成绩达到了该系的要求，则有可能被录取。
+假设您指的是韩国大学的3.0-4.5点制（其中4.5为最高分），那么3.92是一个非常高的分数，通常可以满足大多数大学的一般学生招生要求。
+但是，为了给出更准确的答案，请提供以下信息：
+- 您使用的成绩转换标准或方法
+- 化学环境工程系的具体录取分数线
+如果您能提供更多详细信息，我可以帮助您进一步确认。</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 포함하고 있으며, 원본 텍스트의 주요 사실들을 잘 반영하고 있습니다. 그러나 "4.25라는 점수는 대략적인 평균을 의미하는 것 같습니다"라는 부분은 다소 모호하게 표현되어 있어, 정확한 사실을 전달하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, "4.25라는 점수는 대략적인 평균을 의미하는 것 같습니다"라는 표현은 원본의 명확한 판단과는 일치하지 않습니다. 원본에서는 4.25가 합격 가능성이 높다고 명시하고 있기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문자의 성적에 대한 평가와 관련된 추가 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 일부 문장 간의 연결이 다소 약할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, "대략적인 평균"이라는 표현이 정확성을 떨어뜨리는 요소로 작용합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호하여 의미 전달이 완벽하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6415950694972381</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 대략적인 평균을 의미하는 것 같습니다. 하지만 정확한 수능 성적을 확인해야 합니다.
+동의대학교 화학환경공학부에 대해 다음과 같은 정보를 참고하실 수 있습니다:
+1. **모집단위**: 환경공학과, 화학공학과, 응용화학과
+2. **전형요소 반영비율**:
+   - 국어(표준점수) + 수학(표준점수) + 영어 등급점수 + 탐구 표준점수
+   - 가산점: 수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1
+3. **모집인원**: 101명 (공과대학)
+4. **지원 인원**: 122명
+5. **경쟁률**: 약 1.21:1
+6. **국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균**: 276.61
+   - 이는 대략적인 평균 점수를 나타냅니다.
+7. **영어 등급 평균**: 4.70
+8. **수능 4개 영역 등급 평균**: 5.59
+이러한 정보를 바탕으로, 4.25라는 점수가 대략적인 수준을 나타내는 것으로 보입니다.
+**결론:**
+- 4.25의 점수로는 일반적으로 충분할 가능성이 있습니다.
+- 하지만 정확한 수능 성적을 확인해야 합니다 (국어, 수학, 영어 등급).
+- 가산점이 있는 경우 수학 점수가 중요하므로 이를 고려해보세요.
+**추천 사항:**
+1. **수능 성적 확인**: 정확한 국어, 수학, 영어 등급을 확인하세요.
+2. **전형요소 반영비율**: 수능 점수와 가산점을 모두 고려하여 평균 점수를 계산해보세요.
+3. **경쟁률 및 모집인원**: 현재 경쟁률과 모집인원을 고려하여 가능성 판단하세요.
+만약 정확한 수능 성적을 알고 싶다면, 동의대학교 입학처 웹사이트나 전화로 문의하시면 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.2라는 점수가 표준점수인지 아닌지에 대한 의문을 제기하고 있으며, 만약 표준점수라면 합격 가능성이 낮다고 언급하고 있습니다. 그러나 원본 텍스트에서는 4.2라는 점수로 합격 가능성이 존재한다고 판단하고 있어, 이 부분에서 사실과의 불일치가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 4.2라는 점수에 대한 해석이 상반되어 일관성이 떨어집니다. 원본에서는 합격 가능성이 있다고 했으나, 생성된 응답에서는 낮다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 영화학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 전형요소와 면접 준비에 대한 조언도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 4.2 점수에 대한 해석이 상반되어 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 4.2라는 점수에 대한 해석에서 원본 텍스트와 다르게 설명하고 있어 정확성에서 다소 부족합니다. 원본에서는 합격 가능성이 있다고 했으나, 생성된 응답에서는 그렇지 않다고 하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있으며, 관련된 조언을 제공하고 있습니다. 다만, 4.2 점수에 대한 해석에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완벽한 이해를 위해서는 추가적인 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6827666410387266</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 정확한 수능 점수가 아닌가요? 만약 4.2가 표준점수를 의미한다면, 이 점수로 영화학과에 합격할 확률은 상당히 낮을 것 같습니다.
+영화학과의 경우, 전형요소 반영비율이 다음과 같아서 수능 성적이 높지 않으면 합격하기 어렵습니다:
+- 국어: 25%
+- 수학(미적분 또는 기하): 25% (가산점 포함)
+- 영어: 25%
+- 탐구: 25%
+영화학과의 경우, 수능 성적이 높은 편이 아니기 때문에 다른 전형요소들이 중요하게 작용합니다. 특히 면접평가에서 좋은 점수를 받는 것이 합격에 큰 영향을 미칩니다.
+만약 4.2가 표준점수라면, 이 점수로는 합격하기 어렵습니다. 하지만 만약 다른 전형요소들이 매우 뛰어나다면, 면접 등에서 좋은 평가를 받으면 가능성이 있을 수 있습니다.
+추천 드리는 사항:
+1. **면접 준비**: 면접에서는 자신의 영화관심사와 관련된 경험과 열정을 잘 표현해야 합니다.
+2. **서류 준비**: 서류평가에서도 창의적 체험활동, 학업역량 등이 중요하므로 잘 준비해보세요.
+3. **추가 지원**: 다른 전형(예: 실기/실적 위주)으로도 지원을 고려해 보는 것이 좋습니다.
+정확한 판단을 위해서는 해당 대학의 정시모집요강과 성적 산출 예시를 자세히 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 주요 내용을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 세부사항이 추가되어 있어 완전한 일치를 이루지 못합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 추가된 정보가 원본 텍스트의 내용과 완전히 일치하지는 않지만, 전반적으로 일관된 흐름을 가지고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 단계가 잘 연결되어 있습니다. 그러나 추가된 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트에 없는 세부사항이 포함되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 변경할 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.7540820654620737</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 개별면접 방식으로 진행되며, 면접위원 2~3인이 평가를 담당합니다. 또한 블라인드 면접 방식을 적용하여 개인 신상 정보 (수험번호, 성명, 출신고교, 부모직업 등) 노출을 금지하고 교복 착용도 금지됩니다.
+참고로 면접 시간은 1인당 10분 이내입니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
